--- a/TESTING/legendre_out/DATA/p2/a2/p2_a2Fit.xlsx
+++ b/TESTING/legendre_out/DATA/p2/a2/p2_a2Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H229"/>
+  <dimension ref="A1:H223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,25 +408,25 @@
         <v>3.424536350759639</v>
       </c>
       <c r="B2" t="n">
-        <v>1.218982981795412e-05</v>
+        <v>8.232463614673826e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>9.287816702762413e-07</v>
+        <v>1.100460154333214e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>3.712040858314462e-07</v>
+        <v>2.419119907539701e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>5.956795998222726e-07</v>
+        <v>3.976018346421162e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>6.291647799340972</v>
+        <v>20.25118011215352</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2788656877414199</v>
+        <v>0.001121088480734955</v>
       </c>
       <c r="H2" t="n">
-        <v>1.258329559868195</v>
+        <v>4.050236022430704</v>
       </c>
     </row>
     <row r="3">
@@ -434,25 +434,25 @@
         <v>3.42877843536789</v>
       </c>
       <c r="B3" t="n">
-        <v>1.815534434029981e-05</v>
+        <v>1.257979156609018e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>3.394651579348421e-06</v>
+        <v>4.418165306012403e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307203748072805e-07</v>
+        <v>3.698875704548847e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>8.606248840376927e-07</v>
+        <v>5.838214067315716e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>23.09508817070202</v>
+        <v>19.05867788999898</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003237249080249451</v>
+        <v>0.001874357365325504</v>
       </c>
       <c r="H3" t="n">
-        <v>4.619017634140404</v>
+        <v>3.811735577999796</v>
       </c>
     </row>
     <row r="4">
@@ -460,5875 +460,5719 @@
         <v>3.430466699343294</v>
       </c>
       <c r="B4" t="n">
-        <v>2.146113097729046e-05</v>
+        <v>1.50338234676356e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>3.19740146557391e-06</v>
+        <v>9.753937478560465e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>6.051272937804771e-07</v>
+        <v>4.190900470805193e-07</v>
       </c>
       <c r="E4" t="n">
-        <v>9.59105878629932e-07</v>
+        <v>6.67046806413698e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>29.00038266411068</v>
+        <v>25.81780782312254</v>
       </c>
       <c r="G4" t="n">
-        <v>2.318357809295431e-05</v>
+        <v>9.679666846156082e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>5.800076532822136</v>
+        <v>5.163561564624507</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.432206382526072</v>
+        <v>3.433920356105163</v>
       </c>
       <c r="B5" t="n">
-        <v>2.518250242598549e-05</v>
+        <v>2.164634269580537e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>2.865889512229486e-06</v>
+        <v>9.85767972365583e-08</v>
       </c>
       <c r="D5" t="n">
-        <v>7.139876604114331e-07</v>
+        <v>5.680817274915621e-07</v>
       </c>
       <c r="E5" t="n">
-        <v>1.13933573294585e-06</v>
+        <v>8.941993845015966e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>13.25579409430783</v>
+        <v>5.101935984263667</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0210960552001767</v>
+        <v>0.4035669798058744</v>
       </c>
       <c r="H5" t="n">
-        <v>2.651158818861565</v>
+        <v>1.020387196852733</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>3.435737168099</v>
       </c>
       <c r="B6" t="n">
-        <v>3.188445123310949e-05</v>
+        <v>2.291809715931354e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>1.225127587254295e-06</v>
+        <v>-1.303994570057856e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>8.469301084169462e-07</v>
+        <v>6.294150575314751e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>1.343439364587824e-06</v>
+        <v>9.637610674549985e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>6.773087287398066</v>
+        <v>8.531182971741208</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2380704268650975</v>
+        <v>0.1292893349715448</v>
       </c>
       <c r="H6" t="n">
-        <v>1.354617457479613</v>
+        <v>1.706236594348242</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>3.436542735681173</v>
       </c>
       <c r="B7" t="n">
-        <v>3.353353115573569e-05</v>
+        <v>2.332966121507418e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.103067242140698e-06</v>
+        <v>2.179977888782049e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>9.331577148142547e-07</v>
+        <v>6.367314348690941e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>1.429786496709626e-06</v>
+        <v>9.977959182812003e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>7.320344330447998</v>
+        <v>3.372434407287762</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1978850504997609</v>
+        <v>0.6427715635668559</v>
       </c>
       <c r="H7" t="n">
-        <v>1.4640688660896</v>
+        <v>0.6744868814575524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>3.440861949100481</v>
       </c>
       <c r="B8" t="n">
-        <v>3.464783060095807e-05</v>
+        <v>2.648610018893967e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>8.42244654914969e-07</v>
+        <v>-3.725028465522077e-08</v>
       </c>
       <c r="D8" t="n">
-        <v>9.591274581595809e-07</v>
+        <v>6.626305419054738e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>1.523358828792924e-06</v>
+        <v>1.041402146029862e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>2.802544997008045</v>
+        <v>8.187646235738463</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7303954471983933</v>
+        <v>0.1461927916123524</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5605089994016089</v>
+        <v>1.637529247147693</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>3.444324175730245</v>
       </c>
       <c r="B9" t="n">
-        <v>3.853920030636755e-05</v>
+        <v>2.611292385641881e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.004645228219282e-06</v>
+        <v>-6.75943590799537e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>9.769775834783403e-07</v>
+        <v>6.40261539502488e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>1.549194653953674e-06</v>
+        <v>1.002335114307156e-06</v>
       </c>
       <c r="F9" t="n">
-        <v>4.94838725300399</v>
+        <v>2.315721118406238</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4222115376823316</v>
+        <v>0.8039551251047989</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9896774506007979</v>
+        <v>0.4631442236812475</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>3.445018335029777</v>
       </c>
       <c r="B10" t="n">
-        <v>3.813027470336371e-05</v>
+        <v>2.392141439975282e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.687408107593305e-07</v>
+        <v>-6.007675787802547e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>9.429044302918828e-07</v>
+        <v>6.353748633577984e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>1.478493757531823e-06</v>
+        <v>9.966152689518118e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>3.537545542684893</v>
+        <v>6.467056067557067</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6177142816194241</v>
+        <v>0.2633859508200377</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7075091085369786</v>
+        <v>1.293411213511413</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>3.44940610739225</v>
       </c>
       <c r="B11" t="n">
-        <v>3.54494628671896e-05</v>
+        <v>2.352764275135444e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.146228800100732e-07</v>
+        <v>-1.14290507712198e-06</v>
       </c>
       <c r="D11" t="n">
-        <v>9.575411069471785e-07</v>
+        <v>6.278274134281646e-07</v>
       </c>
       <c r="E11" t="n">
-        <v>1.499220260345383e-06</v>
+        <v>9.63014912505626e-07</v>
       </c>
       <c r="F11" t="n">
-        <v>4.594339687856825</v>
+        <v>6.990981332083674</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4673611814402719</v>
+        <v>0.2213119023220301</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9188679375713651</v>
+        <v>1.398196266416735</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>3.453639622132605</v>
       </c>
       <c r="B12" t="n">
-        <v>3.478990214732896e-05</v>
+        <v>2.034040951072734e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>-9.799600706253713e-07</v>
+        <v>-8.041388087858677e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>9.401906147803597e-07</v>
+        <v>5.346581290196728e-07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.433414950385833e-06</v>
+        <v>8.315236382810692e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>9.397499045587345</v>
+        <v>4.516252931653209</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09422159822715956</v>
+        <v>0.4777118012092089</v>
       </c>
       <c r="H12" t="n">
-        <v>1.879499809117469</v>
+        <v>0.9032505863306417</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>3.45806167396666</v>
       </c>
       <c r="B13" t="n">
-        <v>2.986986874030578e-05</v>
+        <v>1.555666777143936e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>-6.156871218901004e-07</v>
+        <v>-5.224024583373687e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>7.88708212722009e-07</v>
+        <v>4.323819731240113e-07</v>
       </c>
       <c r="E13" t="n">
-        <v>1.22633455830673e-06</v>
+        <v>6.791518266257817e-07</v>
       </c>
       <c r="F13" t="n">
-        <v>4.522466483599896</v>
+        <v>19.85729817979258</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4768831389004593</v>
+        <v>0.001329172354539783</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9044932967199791</v>
+        <v>3.971459635958516</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>3.659299311887736</v>
       </c>
       <c r="B14" t="n">
-        <v>2.318183685045408e-05</v>
+        <v>8.8728048924174e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.556766620531167e-07</v>
+        <v>1.728635561165289e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>6.492562810882512e-07</v>
+        <v>2.872902421994668e-07</v>
       </c>
       <c r="E14" t="n">
-        <v>1.000494504384794e-06</v>
+        <v>4.458515390167334e-07</v>
       </c>
       <c r="F14" t="n">
-        <v>13.66869510691917</v>
+        <v>2.224625055255425</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0178566755113599</v>
+        <v>0.8172711692407081</v>
       </c>
       <c r="H14" t="n">
-        <v>2.733739021383835</v>
+        <v>0.444925011051085</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>3.676516176489705</v>
       </c>
       <c r="B15" t="n">
-        <v>1.321747293496369e-05</v>
+        <v>1.263902557221243e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>3.286944177586174e-07</v>
+        <v>8.671887197267663e-08</v>
       </c>
       <c r="D15" t="n">
-        <v>4.343154163802874e-07</v>
+        <v>3.821839624537022e-07</v>
       </c>
       <c r="E15" t="n">
-        <v>6.950730283813669e-07</v>
+        <v>5.921844921901934e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>1.698528858920945</v>
+        <v>2.496702624236247</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8890850460817327</v>
+        <v>0.7769915804084703</v>
       </c>
       <c r="H15" t="n">
-        <v>0.339705771784189</v>
+        <v>0.4993405248472493</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>3.677433152354519</v>
       </c>
       <c r="B16" t="n">
-        <v>1.850935028847368e-05</v>
+        <v>1.739522180799901e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>1.281218903850597e-06</v>
+        <v>2.940764516264534e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>5.693149356589506e-07</v>
+        <v>5.088744841288848e-07</v>
       </c>
       <c r="E16" t="n">
-        <v>9.065350596576287e-07</v>
+        <v>8.445575641455212e-07</v>
       </c>
       <c r="F16" t="n">
-        <v>1.405198683218428</v>
+        <v>6.358603966140532</v>
       </c>
       <c r="G16" t="n">
-        <v>0.923743749077045</v>
+        <v>0.2728718900145052</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2810397366436855</v>
+        <v>1.271720793228106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>3.679207115008878</v>
       </c>
       <c r="B17" t="n">
-        <v>2.522400818434317e-05</v>
+        <v>2.047098896326159e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>5.09173149941136e-06</v>
+        <v>3.357008210709399e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>7.516308778645914e-07</v>
+        <v>5.77585537456448e-07</v>
       </c>
       <c r="E17" t="n">
-        <v>1.243069928954106e-06</v>
+        <v>9.601768218108604e-07</v>
       </c>
       <c r="F17" t="n">
-        <v>6.240042204665045</v>
+        <v>11.93564581650148</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2835575531642939</v>
+        <v>0.03568030128785405</v>
       </c>
       <c r="H17" t="n">
-        <v>1.248008440933009</v>
+        <v>2.387129163300296</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>3.680072671666319</v>
       </c>
       <c r="B18" t="n">
-        <v>3.089009859583069e-05</v>
+        <v>2.411279235909329e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>6.078230408275472e-06</v>
+        <v>4.234192414324861e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>8.733607177912032e-07</v>
+        <v>6.649533062229612e-07</v>
       </c>
       <c r="E18" t="n">
-        <v>1.482395825183438e-06</v>
+        <v>1.114146647816778e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>5.265358333932177</v>
+        <v>21.4153402103584</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3843611450649091</v>
+        <v>0.00067599634053721</v>
       </c>
       <c r="H18" t="n">
-        <v>1.053071666786435</v>
+        <v>4.283068042071681</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>3.680886809116387</v>
       </c>
       <c r="B19" t="n">
-        <v>3.526613227676796e-05</v>
+        <v>2.899253743242856e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>7.300394534044162e-06</v>
+        <v>5.754278030059739e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>9.795206831778198e-07</v>
+        <v>7.637727717238079e-07</v>
       </c>
       <c r="E19" t="n">
-        <v>1.648722314469673e-06</v>
+        <v>1.285699691219853e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>5.537121924304252</v>
+        <v>8.052111486530038</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3538924959827369</v>
+        <v>0.1533869496957424</v>
       </c>
       <c r="H19" t="n">
-        <v>1.10742438486085</v>
+        <v>1.610422297306008</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>3.681743795905933</v>
       </c>
       <c r="B20" t="n">
-        <v>4.264651588727659e-05</v>
+        <v>3.219884891208222e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>1.122860603427268e-05</v>
+        <v>7.134423241227892e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>1.141184490336341e-06</v>
+        <v>8.580891020384509e-07</v>
       </c>
       <c r="E20" t="n">
-        <v>1.978467592028322e-06</v>
+        <v>1.443391025249541e-06</v>
       </c>
       <c r="F20" t="n">
-        <v>3.47533864682765</v>
+        <v>16.1833053319778</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6271224470261334</v>
+        <v>0.006339756479484267</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6950677293655301</v>
+        <v>3.23666106639556</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>3.682660771770746</v>
       </c>
       <c r="B21" t="n">
-        <v>4.632203748618072e-05</v>
+        <v>4.929451155551363e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1.338347757591824e-05</v>
+        <v>9.875413939980924e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>1.258632400957936e-06</v>
+        <v>1.245399591799416e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>2.137188678398688e-06</v>
+        <v>2.121115986546181e-06</v>
       </c>
       <c r="F21" t="n">
-        <v>5.946881799515569</v>
+        <v>8.507419862220665</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3114219184347848</v>
+        <v>0.1303994196801557</v>
       </c>
       <c r="H21" t="n">
-        <v>1.189376359903114</v>
+        <v>1.701483972444133</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>3.683397780409756</v>
       </c>
       <c r="B22" t="n">
-        <v>7.226151806603719e-05</v>
+        <v>0.0001414134429343385</v>
       </c>
       <c r="C22" t="n">
-        <v>1.735328370706641e-05</v>
+        <v>4.354790454555857e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>1.842339905904836e-06</v>
+        <v>3.406305130881375e-06</v>
       </c>
       <c r="E22" t="n">
-        <v>3.15524391498026e-06</v>
+        <v>6.069110767022255e-06</v>
       </c>
       <c r="F22" t="n">
-        <v>3.387028492210217</v>
+        <v>12.80118310651989</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6405462607571676</v>
+        <v>0.02531486700665556</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6774056984420433</v>
+        <v>2.560236621303977</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>3.684263337067197</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0002074844836460075</v>
+        <v>0.0002217785869435112</v>
       </c>
       <c r="C23" t="n">
-        <v>7.285385307500657e-05</v>
+        <v>6.816074251671719e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>5.038232179662904e-06</v>
+        <v>5.293721440234037e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>9.022023330538316e-06</v>
+        <v>9.463075683590624e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>1.135703211416786</v>
+        <v>20.1707332672711</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9508950242132528</v>
+        <v>0.001160802647252265</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2271406422833572</v>
+        <v>4.03414665345422</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>3.685943031174706</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0003279283698658743</v>
+        <v>0.0003313021834590238</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0001155541587205529</v>
+        <v>8.727728984228168e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>7.839975017698682e-06</v>
+        <v>7.808752697882997e-06</v>
       </c>
       <c r="E24" t="n">
-        <v>1.397172303879999e-05</v>
+        <v>1.367463146189293e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>3.091251180778169</v>
+        <v>15.01364310619683</v>
       </c>
       <c r="G24" t="n">
-        <v>0.685919903653002</v>
+        <v>0.01030420183252433</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6182502361556338</v>
+        <v>3.002728621239366</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>3.687699854093274</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0004920814685676157</v>
+        <v>0.0003365145117351876</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0001395951833332132</v>
+        <v>9.683380255421006e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>1.161591062204746e-05</v>
+        <v>7.713889314590694e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>2.027714225809619e-05</v>
+        <v>1.373410782779035e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>2.374791920601783</v>
+        <v>14.34371075210658</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7952220894070732</v>
+        <v>0.01356740174165272</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4749583841203567</v>
+        <v>2.868742150421316</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>3.689525235955006</v>
       </c>
       <c r="B26" t="n">
-        <v>0.000495420509209001</v>
+        <v>0.0003126617056009885</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0001600209904769283</v>
+        <v>7.819302310992608e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>1.139385062301811e-05</v>
+        <v>7.346665955633374e-06</v>
       </c>
       <c r="E26" t="n">
-        <v>2.027594024049169e-05</v>
+        <v>1.295176537445414e-05</v>
       </c>
       <c r="F26" t="n">
-        <v>2.855844371542741</v>
+        <v>17.70797827314065</v>
       </c>
       <c r="G26" t="n">
-        <v>0.722198657979908</v>
+        <v>0.003335559148292775</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5711688743085481</v>
+        <v>3.54159565462813</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>3.691256349269888</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0004586163039670962</v>
+        <v>0.00029800710233571</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0001381614207553066</v>
+        <v>8.163732931508466e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>1.079521323755632e-05</v>
+        <v>7.140968915851101e-06</v>
       </c>
       <c r="E27" t="n">
-        <v>1.891634563000753e-05</v>
+        <v>1.259506770218435e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>5.232261095935486</v>
+        <v>16.72844643175624</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3881973967251127</v>
+        <v>0.005044666727218255</v>
       </c>
       <c r="H27" t="n">
-        <v>1.046452219187097</v>
+        <v>3.345689286351249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>3.693013172188456</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0004375325363946112</v>
+        <v>0.0002988752000285893</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0001372566071858604</v>
+        <v>7.491819598274557e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>1.053635567424978e-05</v>
+        <v>7.168012646553389e-06</v>
       </c>
       <c r="E28" t="n">
-        <v>1.853927138477011e-05</v>
+        <v>1.254151937703933e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>3.79746122600509</v>
+        <v>15.73787080150363</v>
       </c>
       <c r="G28" t="n">
-        <v>0.578929390580414</v>
+        <v>0.00763371067716154</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7594922452010179</v>
+        <v>3.147574160300725</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>3.693578783469556</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0004399625145888817</v>
+        <v>0.0003032651344056436</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0001315252823816083</v>
+        <v>7.266841596667212e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>1.057069753668433e-05</v>
+        <v>7.1451683689988e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>1.846288927871981e-05</v>
+        <v>1.250709147743881e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>3.62527048969224</v>
+        <v>15.31779836338594</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6045230790566561</v>
+        <v>0.009087336112452144</v>
       </c>
       <c r="H29" t="n">
-        <v>0.725054097938448</v>
+        <v>3.063559672677187</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>3.694615737484906</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0004472277039688203</v>
+        <v>0.0002928808535923697</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0001217056277997604</v>
+        <v>7.013454852445477e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>1.055465660223048e-05</v>
+        <v>6.931207801960197e-06</v>
       </c>
       <c r="E30" t="n">
-        <v>1.839906017777679e-05</v>
+        <v>1.217436156138852e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>2.158302534340033</v>
+        <v>18.20973327329289</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8268355931691322</v>
+        <v>0.002694716788486881</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4316605068680067</v>
+        <v>3.641946654658578</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>3.696278291856625</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0004290908590120553</v>
+        <v>0.0002953800963141364</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0001220696402282588</v>
+        <v>8.025541189218194e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>1.016966875346722e-05</v>
+        <v>6.981839333744656e-06</v>
       </c>
       <c r="E31" t="n">
-        <v>1.774927683679655e-05</v>
+        <v>1.233681520737924e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>4.505515099321627</v>
+        <v>16.71273661562476</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4791458760173415</v>
+        <v>0.005078086829956007</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9011030198643255</v>
+        <v>3.342547323124952</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>3.698009405171506</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0004347550398645225</v>
+        <v>0.0002937665090610124</v>
       </c>
       <c r="C32" t="n">
-        <v>0.000138229540767456</v>
+        <v>8.564205170108962e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>1.027620020067227e-05</v>
+        <v>7.014604801071759e-06</v>
       </c>
       <c r="E32" t="n">
-        <v>1.812472046447042e-05</v>
+        <v>1.249309249420521e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>3.073340898825862</v>
+        <v>22.18734814572837</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6886797808616498</v>
+        <v>0.0004823528334324422</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6146681797651724</v>
+        <v>4.437469629145674</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>3.699783367825865</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0004307426858364477</v>
+        <v>0.0002868153780718074</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0001511540905525172</v>
+        <v>7.447964203211518e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>1.027076705732807e-05</v>
+        <v>6.740139728468519e-06</v>
       </c>
       <c r="E33" t="n">
-        <v>1.825904251842267e-05</v>
+        <v>1.189148268916803e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>5.111592856052662</v>
+        <v>15.02912658797822</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4024137278943338</v>
+        <v>0.01023860682461319</v>
       </c>
       <c r="H33" t="n">
-        <v>1.022318571210532</v>
+        <v>3.005825317595644</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>3.70147163180127</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0004219283184617169</v>
+        <v>0.0002800851154557215</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00012213978623706</v>
+        <v>7.501439308055196e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>9.962416363506917e-06</v>
+        <v>6.7218268160846e-06</v>
       </c>
       <c r="E34" t="n">
-        <v>1.754134412754308e-05</v>
+        <v>1.174110751043979e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>2.931815257872947</v>
+        <v>11.00940938745221</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7104972087762759</v>
+        <v>0.05119374188787472</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5863630515745893</v>
+        <v>2.201881877490441</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>3.703177035512466</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0004120821919444276</v>
+        <v>0.0002597227682471274</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0001263074065957389</v>
+        <v>6.953999589781848e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>9.959965984980591e-06</v>
+        <v>6.17156426230512e-06</v>
       </c>
       <c r="E35" t="n">
-        <v>1.752149198179366e-05</v>
+        <v>1.094343944602576e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>2.10357377953332</v>
+        <v>21.6777938576531</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8346360072084855</v>
+        <v>0.0006028221722494239</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4207147559066639</v>
+        <v>4.33555877153062</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>3.704736751469439</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0003821530504762069</v>
+        <v>0.000236241729400681</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0001188947033493574</v>
+        <v>6.470837056770082e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>9.085515822789474e-06</v>
+        <v>5.597237611552066e-06</v>
       </c>
       <c r="E36" t="n">
-        <v>1.600971343148741e-05</v>
+        <v>9.980136863374091e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>5.273498177082954</v>
+        <v>23.66190649818937</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3834218365158372</v>
+        <v>0.0002521156464473202</v>
       </c>
       <c r="H36" t="n">
-        <v>1.054699635416591</v>
+        <v>4.732381299637874</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>3.706647832010125</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0003476188492904153</v>
+        <v>0.0001914926335249579</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0001119218440347924</v>
+        <v>5.280667841487196e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>8.229419829218299e-06</v>
+        <v>4.49295537513894e-06</v>
       </c>
       <c r="E37" t="n">
-        <v>1.457045891762132e-05</v>
+        <v>7.963778378998216e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>6.026085929672243</v>
+        <v>19.0468963616188</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3036889146727926</v>
+        <v>0.001883856159914549</v>
       </c>
       <c r="H37" t="n">
-        <v>1.205217185934449</v>
+        <v>3.80937927232376</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>3.708276106910262</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0002818030096169704</v>
+        <v>0.0001531425249208363</v>
       </c>
       <c r="C38" t="n">
-        <v>9.032783956646732e-05</v>
+        <v>3.714052098584088e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>6.621579644400336e-06</v>
+        <v>3.584950781448325e-06</v>
       </c>
       <c r="E38" t="n">
-        <v>1.170785630494798e-05</v>
+        <v>6.277172586215938e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>4.195141879086061</v>
+        <v>14.31910356523037</v>
       </c>
       <c r="G38" t="n">
-        <v>0.521676135522993</v>
+        <v>0.01370457205775478</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8390283758172122</v>
+        <v>2.863820713046075</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>3.709964370885666</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0002250153465253383</v>
+        <v>0.00010305087861454</v>
       </c>
       <c r="C39" t="n">
-        <v>6.484882472617739e-05</v>
+        <v>2.872929847556767e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>5.286380748898688e-06</v>
+        <v>2.439470718206127e-06</v>
       </c>
       <c r="E39" t="n">
-        <v>9.260336357613045e-06</v>
+        <v>4.365528336619462e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>3.273698094633146</v>
+        <v>22.59002254549851</v>
       </c>
       <c r="G39" t="n">
-        <v>0.657870835254177</v>
+        <v>0.0004042466060441324</v>
       </c>
       <c r="H39" t="n">
-        <v>0.6547396189266292</v>
+        <v>4.518004509099702</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>3.710855637146794</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0001516043862405291</v>
+        <v>0.0001461820579912724</v>
       </c>
       <c r="C40" t="n">
-        <v>5.203597495724095e-05</v>
+        <v>3.832628019193331e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>3.577332886756744e-06</v>
+        <v>3.488751446034487e-06</v>
       </c>
       <c r="E40" t="n">
-        <v>6.374864396418454e-06</v>
+        <v>6.115197857011217e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>5.572799985548898</v>
+        <v>12.4947387677103</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3500291177608389</v>
+        <v>0.02860287292369516</v>
       </c>
       <c r="H40" t="n">
-        <v>1.11455999710978</v>
+        <v>2.498947753542061</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>3.711772613011608</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0002144822703593251</v>
+        <v>7.28544683364258e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>6.392155852970225e-05</v>
+        <v>2.030907532838531e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>5.148769653526597e-06</v>
+        <v>1.774395282684384e-06</v>
       </c>
       <c r="E41" t="n">
-        <v>9.037207221456679e-06</v>
+        <v>3.128774427694742e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>1.906718422591912</v>
+        <v>18.542593359355</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8618959320343611</v>
+        <v>0.002337903029385974</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3813436845183824</v>
+        <v>3.708518671871</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>3.713529435930176</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0001076062041545801</v>
+        <v>4.973654402034434e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>3.387060839503379e-05</v>
+        <v>9.608472381379439e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>2.63238651241328e-06</v>
+        <v>1.228603605685263e-06</v>
       </c>
       <c r="E42" t="n">
-        <v>4.626959179572624e-06</v>
+        <v>2.082849531234824e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>3.226359988828264</v>
+        <v>7.388031411097922</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6651333999095734</v>
+        <v>0.1933439612736572</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6452719977656528</v>
+        <v>1.477606282219584</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>3.715166280698207</v>
       </c>
       <c r="B43" t="n">
-        <v>7.304530763800183e-05</v>
+        <v>3.783640895366658e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>1.480319202155109e-05</v>
+        <v>6.707176736716027e-06</v>
       </c>
       <c r="D43" t="n">
-        <v>1.826747765582256e-06</v>
+        <v>9.509150188160274e-07</v>
       </c>
       <c r="E43" t="n">
-        <v>3.095887616231071e-06</v>
+        <v>1.608522323111774e-06</v>
       </c>
       <c r="F43" t="n">
-        <v>1.693600444549325</v>
+        <v>15.1452868217242</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8897050061351929</v>
+        <v>0.009759257842593244</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3387200889098649</v>
+        <v>3.02905736434484</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>3.719356946099085</v>
       </c>
       <c r="B44" t="n">
-        <v>5.555962653319326e-05</v>
+        <v>2.307185047129486e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>1.146201829665665e-05</v>
+        <v>3.546510121380234e-06</v>
       </c>
       <c r="D44" t="n">
-        <v>1.409342797440744e-06</v>
+        <v>6.248941795271372e-07</v>
       </c>
       <c r="E44" t="n">
-        <v>2.384834470221155e-06</v>
+        <v>1.038132561934947e-06</v>
       </c>
       <c r="F44" t="n">
-        <v>4.011536897147857</v>
+        <v>7.976224960795378</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5477561166490083</v>
+        <v>0.1575507933004048</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8023073794295714</v>
+        <v>1.595244992159075</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>3.723504762160485</v>
       </c>
       <c r="B45" t="n">
-        <v>3.342314753084469e-05</v>
+        <v>2.037488293850584e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>7.836628944040245e-06</v>
+        <v>1.269890344626317e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>9.145757873764909e-07</v>
+        <v>5.809661067668673e-07</v>
       </c>
       <c r="E45" t="n">
-        <v>1.566900956220722e-06</v>
+        <v>9.333070260141546e-07</v>
       </c>
       <c r="F45" t="n">
-        <v>2.619425104740763</v>
+        <v>12.64812847303181</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7584116939157833</v>
+        <v>0.02690905093776015</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5238850209481527</v>
+        <v>2.529625694606363</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>3.727875394787168</v>
       </c>
       <c r="B46" t="n">
-        <v>2.951918661763874e-05</v>
+        <v>1.93320144836183e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>2.099028226702481e-06</v>
+        <v>2.916938203058629e-07</v>
       </c>
       <c r="D46" t="n">
-        <v>8.615238267711844e-07</v>
+        <v>5.42214511972319e-07</v>
       </c>
       <c r="E46" t="n">
-        <v>1.372887244485925e-06</v>
+        <v>8.393547183799508e-07</v>
       </c>
       <c r="F46" t="n">
-        <v>9.489461600938291</v>
+        <v>3.854121812189336</v>
       </c>
       <c r="G46" t="n">
-        <v>0.09106305007903329</v>
+        <v>0.5706043477886338</v>
       </c>
       <c r="H46" t="n">
-        <v>1.897892320187658</v>
+        <v>0.7708243624378672</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="B47" t="n">
-        <v>2.810767443087114e-05</v>
+        <v>2.112438584737053e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>2.40710052808061e-06</v>
+        <v>-5.608298235383056e-07</v>
       </c>
       <c r="D47" t="n">
-        <v>7.93590788442157e-07</v>
+        <v>5.677087062582532e-07</v>
       </c>
       <c r="E47" t="n">
-        <v>1.273572032294042e-06</v>
+        <v>8.678941792669419e-07</v>
       </c>
       <c r="F47" t="n">
-        <v>4.107406761011487</v>
+        <v>4.263178239504829</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5340580332903264</v>
+        <v>0.5121798148248744</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8214813522022973</v>
+        <v>0.8526356479009658</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="B48" t="n">
-        <v>3.046176367481638e-05</v>
+        <v>2.715045950437937e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>-4.692376266785729e-07</v>
+        <v>-1.198663166321931e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>8.40044539885301e-07</v>
+        <v>7.059399180206461e-07</v>
       </c>
       <c r="E48" t="n">
-        <v>1.300313795078216e-06</v>
+        <v>1.102461984704847e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>8.620115210865009</v>
+        <v>3.968899074061802</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1252100672719406</v>
+        <v>0.5539023825935367</v>
       </c>
       <c r="H48" t="n">
-        <v>1.724023042173002</v>
+        <v>0.7937798148123605</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="B49" t="n">
-        <v>4.00811164477465e-05</v>
+        <v>3.742120114396968e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.224966421081006e-06</v>
+        <v>-2.747411083933461e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>1.062573585256374e-06</v>
+        <v>9.465987615998773e-07</v>
       </c>
       <c r="E49" t="n">
-        <v>1.685054025629787e-06</v>
+        <v>1.463892014959784e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>2.780089813057069</v>
+        <v>3.760483677827734</v>
       </c>
       <c r="G49" t="n">
-        <v>0.7338444269651352</v>
+        <v>0.5843893791559758</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5560179626114137</v>
+        <v>0.7520967355655468</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="B50" t="n">
-        <v>5.461375449934427e-05</v>
+        <v>5.419675160998599e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>-2.713226277978667e-06</v>
+        <v>-2.97084484010876e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>1.405592408932911e-06</v>
+        <v>1.345645413359598e-06</v>
       </c>
       <c r="E50" t="n">
-        <v>2.199778263060204e-06</v>
+        <v>2.09471446731947e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>4.674233336743333</v>
+        <v>4.51843872559992</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4569152208799103</v>
+        <v>0.4774201969572115</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9348466673486666</v>
+        <v>0.9036877451199841</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="B51" t="n">
-        <v>7.941102044357332e-05</v>
+        <v>6.784157048890814e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>-3.980823191623481e-06</v>
+        <v>-4.07484576518723e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>1.998666636680572e-06</v>
+        <v>1.623362523992625e-06</v>
       </c>
       <c r="E51" t="n">
-        <v>3.103144071711724e-06</v>
+        <v>2.516573148488114e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>6.30393092446682</v>
+        <v>1.298845614645514</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2777582166886883</v>
+        <v>0.9350504196990782</v>
       </c>
       <c r="H51" t="n">
-        <v>1.260786184893364</v>
+        <v>0.2597691229291028</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="B52" t="n">
-        <v>9.970180349116148e-05</v>
+        <v>0.0001275204667181763</v>
       </c>
       <c r="C52" t="n">
-        <v>-7.242898013664565e-06</v>
+        <v>-1.056407287779243e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>2.417120597402709e-06</v>
+        <v>3.163368770480769e-06</v>
       </c>
       <c r="E52" t="n">
-        <v>3.739750760155411e-06</v>
+        <v>4.853946169729472e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>1.672349407133679</v>
+        <v>2.884038238162866</v>
       </c>
       <c r="G52" t="n">
-        <v>0.892364683621088</v>
+        <v>0.7178580503859701</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3344698814267358</v>
+        <v>0.5768076476325732</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001884631992935515</v>
+        <v>0.0001995537170794172</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.409513382221974e-05</v>
+        <v>-2.404582686024655e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>4.728521273695759e-06</v>
+        <v>4.830363263455963e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>7.318885471123467e-06</v>
+        <v>7.280608727280785e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>3.04294012419389</v>
+        <v>0.7580626668409263</v>
       </c>
       <c r="G53" t="n">
-        <v>0.6933656500381635</v>
+        <v>0.9796307717405123</v>
       </c>
       <c r="H53" t="n">
-        <v>0.6085880248387779</v>
+        <v>0.1516125333681853</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0002949729409954861</v>
+        <v>0.0004670985991246221</v>
       </c>
       <c r="C54" t="n">
-        <v>-3.432505375493413e-05</v>
+        <v>-5.389990529280209e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>7.21934356315002e-06</v>
+        <v>1.148512753498969e-05</v>
       </c>
       <c r="E54" t="n">
-        <v>1.096973157030191e-05</v>
+        <v>1.73049323380901e-05</v>
       </c>
       <c r="F54" t="n">
-        <v>1.056135750784686</v>
+        <v>1.04360788551596</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9579121582555723</v>
+        <v>0.9589723687979886</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2112271501569371</v>
+        <v>0.2087215771031921</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0006950058230278675</v>
+        <v>0.0007017954516086925</v>
       </c>
       <c r="C55" t="n">
-        <v>-8.114924083086337e-05</v>
+        <v>-6.779523927133403e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>1.730305906814208e-05</v>
+        <v>1.684116403020248e-05</v>
       </c>
       <c r="E55" t="n">
-        <v>2.640512797432509e-05</v>
+        <v>2.580891375875308e-05</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7651178356292462</v>
+        <v>2.699701143879911</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9792046823919637</v>
+        <v>0.7461641458088852</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1530235671258492</v>
+        <v>0.5399402287759821</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="B56" t="n">
-        <v>0.001034268197184892</v>
+        <v>0.0007410611360572172</v>
       </c>
       <c r="C56" t="n">
-        <v>-9.48684143764661e-05</v>
+        <v>-9.559152143256348e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>2.508088959499737e-05</v>
+        <v>1.754453310872644e-05</v>
       </c>
       <c r="E56" t="n">
-        <v>3.865536472750195e-05</v>
+        <v>2.66609594977696e-05</v>
       </c>
       <c r="F56" t="n">
-        <v>3.081241532000245</v>
+        <v>3.377626523835322</v>
       </c>
       <c r="G56" t="n">
-        <v>0.6874622551848406</v>
+        <v>0.6419796620527289</v>
       </c>
       <c r="H56" t="n">
-        <v>0.6162483064000489</v>
+        <v>0.6755253047670644</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="B57" t="n">
-        <v>0.001090394314413877</v>
+        <v>0.0005454812395226144</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.0001352533527727762</v>
+        <v>-5.942276024079859e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>2.601672655197242e-05</v>
+        <v>1.317059042722555e-05</v>
       </c>
       <c r="E57" t="n">
-        <v>3.961768399546585e-05</v>
+        <v>2.008183456057811e-05</v>
       </c>
       <c r="F57" t="n">
-        <v>5.198478922335862</v>
+        <v>2.85399940662958</v>
       </c>
       <c r="G57" t="n">
-        <v>0.3921410676903253</v>
+        <v>0.7224826001161294</v>
       </c>
       <c r="H57" t="n">
-        <v>1.039695784467172</v>
+        <v>0.570799881325916</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0008064168678549776</v>
+        <v>0.0002593444322312505</v>
       </c>
       <c r="C58" t="n">
-        <v>-8.717512488570106e-05</v>
+        <v>-2.894966814838673e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>1.96860955175609e-05</v>
+        <v>6.356523168659177e-06</v>
       </c>
       <c r="E58" t="n">
-        <v>3.020332793813328e-05</v>
+        <v>9.669978036734713e-06</v>
       </c>
       <c r="F58" t="n">
-        <v>2.883160208307028</v>
+        <v>2.316349940150471</v>
       </c>
       <c r="G58" t="n">
-        <v>0.7179932684851629</v>
+        <v>0.8038625458967935</v>
       </c>
       <c r="H58" t="n">
-        <v>0.5766320416614057</v>
+        <v>0.4632699880300943</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="B59" t="n">
-        <v>0.00038309912558978</v>
+        <v>0.000190304027332999</v>
       </c>
       <c r="C59" t="n">
-        <v>-3.685009028846036e-05</v>
+        <v>-1.914878054041705e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>9.458676732766111e-06</v>
+        <v>4.700984256149801e-06</v>
       </c>
       <c r="E59" t="n">
-        <v>1.443770373690852e-05</v>
+        <v>7.140724956786378e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>4.028537747189151</v>
+        <v>1.715781837903777</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5453145748651433</v>
+        <v>0.886905548481948</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8057075494378303</v>
+        <v>0.3431563675807555</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002834569498543188</v>
+        <v>0.0002544698839570633</v>
       </c>
       <c r="C60" t="n">
-        <v>-2.910203927765896e-05</v>
+        <v>-3.264967593910229e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>7.096601169244026e-06</v>
+        <v>6.150101955734155e-06</v>
       </c>
       <c r="E60" t="n">
-        <v>1.086861648445754e-05</v>
+        <v>9.308643240395464e-06</v>
       </c>
       <c r="F60" t="n">
-        <v>2.447071246639257</v>
+        <v>2.787526163563124</v>
       </c>
       <c r="G60" t="n">
-        <v>0.784444289720938</v>
+        <v>0.7327025714293756</v>
       </c>
       <c r="H60" t="n">
-        <v>0.4894142493278514</v>
+        <v>0.5575052327126249</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0003749275649975854</v>
+        <v>9.842032188347079e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>-4.448384600875752e-05</v>
+        <v>-6.752004223165064e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>9.151044349438919e-06</v>
+        <v>2.470285263447771e-06</v>
       </c>
       <c r="E61" t="n">
-        <v>1.398648019665617e-05</v>
+        <v>3.815752149141065e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>4.086248468809169</v>
+        <v>3.839546820175595</v>
       </c>
       <c r="G61" t="n">
-        <v>0.5370663639158816</v>
+        <v>0.5727409445102813</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8172496937618338</v>
+        <v>0.7679093640351191</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0001443526018944515</v>
+        <v>6.599505236697462e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>-8.30351287478472e-06</v>
+        <v>-1.992141622386043e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>3.673764381533612e-06</v>
+        <v>1.62524024672527e-06</v>
       </c>
       <c r="E62" t="n">
-        <v>5.725624906353872e-06</v>
+        <v>2.565252210818789e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>4.497946114421171</v>
+        <v>3.974985015223624</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4801582879954797</v>
+        <v>0.5530231078369461</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8995892228842342</v>
+        <v>0.7949970030447249</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="B63" t="n">
-        <v>9.686145042496685e-05</v>
+        <v>3.743012048992724e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.334110928803115e-06</v>
+        <v>2.270800579244262e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>2.409727854773588e-06</v>
+        <v>9.714722121312106e-07</v>
       </c>
       <c r="E63" t="n">
-        <v>3.803656247052428e-06</v>
+        <v>1.569887766283875e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>3.914548621856068</v>
+        <v>5.910425239673288</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5617834022230193</v>
+        <v>0.3150327587913012</v>
       </c>
       <c r="H63" t="n">
-        <v>0.7829097243712135</v>
+        <v>1.182085047934658</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="B64" t="n">
-        <v>5.498409287016039e-05</v>
+        <v>2.817448336847238e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>4.52591963002901e-06</v>
+        <v>2.891266447290616e-06</v>
       </c>
       <c r="D64" t="n">
-        <v>1.445506076044846e-06</v>
+        <v>7.346668089154018e-07</v>
       </c>
       <c r="E64" t="n">
-        <v>2.357065710659063e-06</v>
+        <v>1.192353601619965e-06</v>
       </c>
       <c r="F64" t="n">
-        <v>4.728304298083852</v>
+        <v>3.331728423477328</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4499295822117099</v>
+        <v>0.648987688768053</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9456608596167705</v>
+        <v>0.6663456846954656</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="B65" t="n">
-        <v>4.15522496202071e-05</v>
+        <v>6.356727390383587e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>4.213945298945551e-06</v>
+        <v>1.627268006584285e-05</v>
       </c>
       <c r="D65" t="n">
-        <v>1.098991225348183e-06</v>
+        <v>1.592720802734131e-06</v>
       </c>
       <c r="E65" t="n">
-        <v>1.821744767533981e-06</v>
+        <v>2.769472401111683e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>2.839711885360585</v>
+        <v>8.878792797018754</v>
       </c>
       <c r="G65" t="n">
-        <v>0.7246809982177079</v>
+        <v>0.113997470347437</v>
       </c>
       <c r="H65" t="n">
-        <v>0.567942377072117</v>
+        <v>1.775758559403751</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="B66" t="n">
-        <v>9.528096883009396e-05</v>
+        <v>0.0001867945605482536</v>
       </c>
       <c r="C66" t="n">
-        <v>2.570342855029424e-05</v>
+        <v>4.478113239831004e-05</v>
       </c>
       <c r="D66" t="n">
-        <v>2.405994779775346e-06</v>
+        <v>4.534046958483215e-06</v>
       </c>
       <c r="E66" t="n">
-        <v>4.185666764431898e-06</v>
+        <v>7.907933773089996e-06</v>
       </c>
       <c r="F66" t="n">
-        <v>1.878227362387465</v>
+        <v>17.51769283328009</v>
       </c>
       <c r="G66" t="n">
-        <v>0.8657249884150674</v>
+        <v>0.003615759853422177</v>
       </c>
       <c r="H66" t="n">
-        <v>0.375645472477493</v>
+        <v>3.503538566656018</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="B67" t="n">
-        <v>0.00027462004608771</v>
+        <v>0.0003273393934337377</v>
       </c>
       <c r="C67" t="n">
-        <v>7.927264223539764e-05</v>
+        <v>6.911922738413271e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>6.694434494276538e-06</v>
+        <v>7.653009201199132e-06</v>
       </c>
       <c r="E67" t="n">
-        <v>1.167565022663202e-05</v>
+        <v>1.328413654213283e-05</v>
       </c>
       <c r="F67" t="n">
-        <v>5.064524761316433</v>
+        <v>9.337747801896565</v>
       </c>
       <c r="G67" t="n">
-        <v>0.4080564030167613</v>
+        <v>0.09632747363963495</v>
       </c>
       <c r="H67" t="n">
-        <v>1.012904952263287</v>
+        <v>1.867549560379313</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0004821238598124973</v>
+        <v>0.0005936119034289191</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0001165420224080176</v>
+        <v>0.0001012180401593201</v>
       </c>
       <c r="D68" t="n">
-        <v>1.1321728815544e-05</v>
+        <v>1.394498905081007e-05</v>
       </c>
       <c r="E68" t="n">
-        <v>1.968211071358938e-05</v>
+        <v>2.380932821047686e-05</v>
       </c>
       <c r="F68" t="n">
-        <v>1.970184369378625</v>
+        <v>11.6714399873781</v>
       </c>
       <c r="G68" t="n">
-        <v>0.8532550327235917</v>
+        <v>0.03957797114637759</v>
       </c>
       <c r="H68" t="n">
-        <v>0.3940368738757249</v>
+        <v>2.334287997475621</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0008732187177481978</v>
+        <v>0.000594527940394767</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0001759272198904473</v>
+        <v>0.0001114819849584974</v>
       </c>
       <c r="D69" t="n">
-        <v>2.059955212758748e-05</v>
+        <v>1.343152634376002e-05</v>
       </c>
       <c r="E69" t="n">
-        <v>3.51666326515174e-05</v>
+        <v>2.324888671981183e-05</v>
       </c>
       <c r="F69" t="n">
-        <v>5.318573481448468</v>
+        <v>9.639773006897855</v>
       </c>
       <c r="G69" t="n">
-        <v>0.3782501279475505</v>
+        <v>0.08610976494209335</v>
       </c>
       <c r="H69" t="n">
-        <v>1.063714696289694</v>
+        <v>1.927954601379571</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0008727126516192899</v>
+        <v>0.001033339253514835</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0001869940214833465</v>
+        <v>0.0001664887674989904</v>
       </c>
       <c r="D70" t="n">
-        <v>1.977511910795274e-05</v>
+        <v>2.361251700422788e-05</v>
       </c>
       <c r="E70" t="n">
-        <v>3.41045647047735e-05</v>
+        <v>4.025995955726777e-05</v>
       </c>
       <c r="F70" t="n">
-        <v>2.399697357929</v>
+        <v>6.517232085505858</v>
       </c>
       <c r="G70" t="n">
-        <v>0.7915191891228954</v>
+        <v>0.2590894220219364</v>
       </c>
       <c r="H70" t="n">
-        <v>0.4799394715857999</v>
+        <v>1.303446417101172</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001523310286843598</v>
+        <v>0.001146118486760949</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0002752573567463307</v>
+        <v>0.000160531886253801</v>
       </c>
       <c r="D71" t="n">
-        <v>3.499427860988376e-05</v>
+        <v>2.697924652257343e-05</v>
       </c>
       <c r="E71" t="n">
-        <v>5.966110146534322e-05</v>
+        <v>4.533051363280929e-05</v>
       </c>
       <c r="F71" t="n">
-        <v>1.6560343721076</v>
+        <v>7.192962074621794</v>
       </c>
       <c r="G71" t="n">
-        <v>0.8943914580353295</v>
+        <v>0.2066804783517336</v>
       </c>
       <c r="H71" t="n">
-        <v>0.3312068744215201</v>
+        <v>1.438592414924359</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="B72" t="n">
-        <v>0.001688898446406621</v>
+        <v>0.001477848717651293</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0002684124947803072</v>
+        <v>7.157864357022455e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>4.00368300563851e-05</v>
+        <v>3.176344769637535e-05</v>
       </c>
       <c r="E72" t="n">
-        <v>6.733866978760251e-05</v>
+        <v>5.225532634891967e-05</v>
       </c>
       <c r="F72" t="n">
-        <v>3.225723033050421</v>
+        <v>2.443953563901908</v>
       </c>
       <c r="G72" t="n">
-        <v>0.6652312085011609</v>
+        <v>0.7849110987217176</v>
       </c>
       <c r="H72" t="n">
-        <v>0.6451446066100841</v>
+        <v>0.4887907127803816</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="B73" t="n">
-        <v>0.002178292359697247</v>
+        <v>0.00224085120012317</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0001367547908177039</v>
+        <v>-7.261330836485624e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>4.680847490061552e-05</v>
+        <v>4.974839992043508e-05</v>
       </c>
       <c r="E73" t="n">
-        <v>7.686541330197395e-05</v>
+        <v>7.914594279192039e-05</v>
       </c>
       <c r="F73" t="n">
-        <v>1.339610673548171</v>
+        <v>3.802611722379982</v>
       </c>
       <c r="G73" t="n">
-        <v>0.9308034781807543</v>
+        <v>0.5781705473498709</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2679221347096342</v>
+        <v>0.7605223444759964</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="B74" t="n">
-        <v>0.003299595823997168</v>
+        <v>0.002064208169039426</v>
       </c>
       <c r="C74" t="n">
-        <v>-7.021776680670583e-05</v>
+        <v>-9.844368864760111e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>7.347044795654078e-05</v>
+        <v>4.620353618991828e-05</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0001169185225756102</v>
+        <v>7.270520487867948e-05</v>
       </c>
       <c r="F74" t="n">
-        <v>4.248182037204658</v>
+        <v>3.708062287922214</v>
       </c>
       <c r="G74" t="n">
-        <v>0.5142648535254469</v>
+        <v>0.5921646315036353</v>
       </c>
       <c r="H74" t="n">
-        <v>0.8496364074409316</v>
+        <v>0.7416124575844428</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="B75" t="n">
-        <v>0.003044235001703693</v>
+        <v>0.001054205137114193</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.0001309531659497661</v>
+        <v>-5.77874108826002e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>6.849388861403615e-05</v>
+        <v>2.506251782649397e-05</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0001081538676015143</v>
+        <v>3.92097329685053e-05</v>
       </c>
       <c r="F75" t="n">
-        <v>4.047663866498273</v>
+        <v>3.828250639476977</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5425741464759841</v>
+        <v>0.574399235183097</v>
       </c>
       <c r="H75" t="n">
-        <v>0.8095327732996547</v>
+        <v>0.7656501278953954</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="B76" t="n">
-        <v>0.00155264845931267</v>
+        <v>0.0005624896063433931</v>
       </c>
       <c r="C76" t="n">
-        <v>-6.495471739849726e-05</v>
+        <v>-2.587342910565258e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>3.717184480612735e-05</v>
+        <v>1.323008600723369e-05</v>
       </c>
       <c r="E76" t="n">
-        <v>5.831402277774715e-05</v>
+        <v>2.058515090138344e-05</v>
       </c>
       <c r="F76" t="n">
-        <v>4.748352915559792</v>
+        <v>1.387905548769103</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4473568429155289</v>
+        <v>0.9256316901399381</v>
       </c>
       <c r="H76" t="n">
-        <v>0.9496705831119584</v>
+        <v>0.2775811097538205</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0008312018768874593</v>
+        <v>0.0004565074608074626</v>
       </c>
       <c r="C77" t="n">
-        <v>-3.466449559406482e-05</v>
+        <v>4.945902315670725e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>1.974316683361173e-05</v>
+        <v>1.080279135377125e-05</v>
       </c>
       <c r="E77" t="n">
-        <v>3.103054452160408e-05</v>
+        <v>1.793096480933719e-05</v>
       </c>
       <c r="F77" t="n">
-        <v>1.444744359618711</v>
+        <v>5.943986905515134</v>
       </c>
       <c r="G77" t="n">
-        <v>0.9193568645724813</v>
+        <v>0.3117074553060518</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2889488719237422</v>
+        <v>1.188797381103027</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0006725699451283915</v>
+        <v>0.001029206197776572</v>
       </c>
       <c r="C78" t="n">
-        <v>8.630024532621603e-05</v>
+        <v>0.0002006569364725538</v>
       </c>
       <c r="D78" t="n">
-        <v>1.601354927319789e-05</v>
+        <v>2.312753777030459e-05</v>
       </c>
       <c r="E78" t="n">
-        <v>2.658698203657511e-05</v>
+        <v>4.008360801694609e-05</v>
       </c>
       <c r="F78" t="n">
-        <v>3.03464873173035</v>
+        <v>9.672152822173093</v>
       </c>
       <c r="G78" t="n">
-        <v>0.6946438601172662</v>
+        <v>0.08507583097199181</v>
       </c>
       <c r="H78" t="n">
-        <v>0.6069297463460701</v>
+        <v>1.934430564434618</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="B79" t="n">
-        <v>0.001514886081047422</v>
+        <v>0.001156613248461758</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0003351520906384717</v>
+        <v>0.0002463001789350086</v>
       </c>
       <c r="D79" t="n">
-        <v>3.404026560848066e-05</v>
+        <v>2.667604838347302e-05</v>
       </c>
       <c r="E79" t="n">
-        <v>5.877868798668328e-05</v>
+        <v>4.637956626428096e-05</v>
       </c>
       <c r="F79" t="n">
-        <v>2.535192397657004</v>
+        <v>12.48786088623009</v>
       </c>
       <c r="G79" t="n">
-        <v>0.7711859502614861</v>
+        <v>0.02868116246887801</v>
       </c>
       <c r="H79" t="n">
-        <v>0.5070384795314007</v>
+        <v>2.497572177246018</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="B80" t="n">
-        <v>0.001699264983915735</v>
+        <v>0.0008377875529097179</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0004201925627004597</v>
+        <v>0.0002102499316808395</v>
       </c>
       <c r="D80" t="n">
-        <v>3.92775565952002e-05</v>
+        <v>1.884695017570343e-05</v>
       </c>
       <c r="E80" t="n">
-        <v>6.820631692289115e-05</v>
+        <v>3.32763475143125e-05</v>
       </c>
       <c r="F80" t="n">
-        <v>3.688185563956904</v>
+        <v>12.98467164217056</v>
       </c>
       <c r="G80" t="n">
-        <v>0.5951231049847572</v>
+        <v>0.02352283560073723</v>
       </c>
       <c r="H80" t="n">
-        <v>0.7376371127913808</v>
+        <v>2.596934328434113</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="B81" t="n">
-        <v>0.001231448881416102</v>
+        <v>0.0004450210377194872</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0003609388264564603</v>
+        <v>7.952194172514794e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>2.765019325165822e-05</v>
+        <v>1.049427274201601e-05</v>
       </c>
       <c r="E81" t="n">
-        <v>4.85194461780994e-05</v>
+        <v>1.789880552518788e-05</v>
       </c>
       <c r="F81" t="n">
-        <v>1.772097680686422</v>
+        <v>11.28595042207857</v>
       </c>
       <c r="G81" t="n">
-        <v>0.8796944064735981</v>
+        <v>0.04599611288125308</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3544195361372844</v>
+        <v>2.257190084415715</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0006543384203226773</v>
+        <v>0.0002627443559731125</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0001403920571427427</v>
+        <v>3.681726655426729e-05</v>
       </c>
       <c r="D82" t="n">
-        <v>1.547496262530584e-05</v>
+        <v>6.356416339332958e-06</v>
       </c>
       <c r="E82" t="n">
-        <v>2.635145037625501e-05</v>
+        <v>1.064768991160057e-05</v>
       </c>
       <c r="F82" t="n">
-        <v>2.566007296734909</v>
+        <v>9.198561104954724</v>
       </c>
       <c r="G82" t="n">
-        <v>0.7665230781237045</v>
+        <v>0.1014015410061664</v>
       </c>
       <c r="H82" t="n">
-        <v>0.5132014593469818</v>
+        <v>1.839712220990945</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0003876653898254187</v>
+        <v>0.0002187886194285631</v>
       </c>
       <c r="C83" t="n">
-        <v>6.526205328548774e-05</v>
+        <v>1.674658179070097e-05</v>
       </c>
       <c r="D83" t="n">
-        <v>9.403489962116387e-06</v>
+        <v>5.352790950916763e-06</v>
       </c>
       <c r="E83" t="n">
-        <v>1.568814674589117e-05</v>
+        <v>8.768023840758623e-06</v>
       </c>
       <c r="F83" t="n">
-        <v>2.796000763166299</v>
+        <v>5.850360632497493</v>
       </c>
       <c r="G83" t="n">
-        <v>0.7314008982796364</v>
+        <v>0.3210529038394389</v>
       </c>
       <c r="H83" t="n">
-        <v>0.5592001526332598</v>
+        <v>1.170072126499499</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0003223075564710462</v>
+        <v>0.0001138788901573742</v>
       </c>
       <c r="C84" t="n">
-        <v>3.563124219577437e-05</v>
+        <v>1.034811122604181e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>7.938152427714686e-06</v>
+        <v>2.830184742141288e-06</v>
       </c>
       <c r="E84" t="n">
-        <v>1.314044662953849e-05</v>
+        <v>4.58279006755636e-06</v>
       </c>
       <c r="F84" t="n">
-        <v>5.363031670876327</v>
+        <v>2.475237173936106</v>
       </c>
       <c r="G84" t="n">
-        <v>0.3731987523410313</v>
+        <v>0.7802196967174392</v>
       </c>
       <c r="H84" t="n">
-        <v>1.072606334175265</v>
+        <v>0.4950474347872212</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0001665586017493058</v>
+        <v>5.993832268573723e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>2.01435192103179e-05</v>
+        <v>6.260726838921282e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>4.171549415261218e-06</v>
+        <v>1.588546844510298e-06</v>
       </c>
       <c r="E85" t="n">
-        <v>6.820782773629068e-06</v>
+        <v>2.566354729648022e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8685763077671954</v>
+        <v>5.86377674090039</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9724547339145843</v>
+        <v>0.3197005523258612</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1737152615534391</v>
+        <v>1.172755348180078</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="B86" t="n">
-        <v>8.763542488436043e-05</v>
+        <v>4.599332598824577e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>1.101666903666026e-05</v>
+        <v>5.108504923128369e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>2.352690071631621e-06</v>
+        <v>1.218597148078624e-06</v>
       </c>
       <c r="E86" t="n">
-        <v>3.841066090405603e-06</v>
+        <v>1.992108395772987e-06</v>
       </c>
       <c r="F86" t="n">
-        <v>3.69567113630126</v>
+        <v>7.695349186770069</v>
       </c>
       <c r="G86" t="n">
-        <v>0.5940082931734371</v>
+        <v>0.1738440729276237</v>
       </c>
       <c r="H86" t="n">
-        <v>0.7391342272602521</v>
+        <v>1.539069837354014</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="B87" t="n">
-        <v>6.710857730458575e-05</v>
+        <v>3.684020211434247e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>7.992076104578254e-06</v>
+        <v>4.29525813837338e-06</v>
       </c>
       <c r="D87" t="n">
-        <v>1.799537118628775e-06</v>
+        <v>9.29103111040656e-07</v>
       </c>
       <c r="E87" t="n">
-        <v>2.937132029864734e-06</v>
+        <v>1.533706523939268e-06</v>
       </c>
       <c r="F87" t="n">
-        <v>3.137308902029429</v>
+        <v>1.809081211923718</v>
       </c>
       <c r="G87" t="n">
-        <v>0.6788263393597187</v>
+        <v>0.8748809072844951</v>
       </c>
       <c r="H87" t="n">
-        <v>0.6274617804058858</v>
+        <v>0.3618162423847436</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="B88" t="n">
-        <v>5.439816353170118e-05</v>
+        <v>3.406545579689906e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>5.678056636706171e-06</v>
+        <v>5.318329697858257e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>1.384269167635277e-06</v>
+        <v>9.254993318685165e-07</v>
       </c>
       <c r="E88" t="n">
-        <v>2.292309998513076e-06</v>
+        <v>1.522709189301123e-06</v>
       </c>
       <c r="F88" t="n">
-        <v>1.87120913788756</v>
+        <v>3.867428606760082</v>
       </c>
       <c r="G88" t="n">
-        <v>0.8666632628484277</v>
+        <v>0.5686566701864961</v>
       </c>
       <c r="H88" t="n">
-        <v>0.374241827577512</v>
+        <v>0.7734857213520163</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="B89" t="n">
-        <v>4.977018475261732e-05</v>
+        <v>4.631781313841878e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>7.921618855857599e-06</v>
+        <v>5.765491632615782e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>1.368596300267605e-06</v>
+        <v>1.258607473280422e-06</v>
       </c>
       <c r="E89" t="n">
-        <v>2.249902768857753e-06</v>
+        <v>2.046519060379973e-06</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8216557786012882</v>
+        <v>4.081478929979491</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9756315546019847</v>
+        <v>0.5377456806198393</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1643311557202576</v>
+        <v>0.8162957859958982</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="B90" t="n">
-        <v>6.823839827111041e-05</v>
+        <v>8.316327378962752e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>1.070492580860692e-05</v>
+        <v>1.089277827061923e-05</v>
       </c>
       <c r="D90" t="n">
-        <v>1.871343949907611e-06</v>
+        <v>2.236967073264269e-06</v>
       </c>
       <c r="E90" t="n">
-        <v>3.098961250631694e-06</v>
+        <v>3.631926082976581e-06</v>
       </c>
       <c r="F90" t="n">
-        <v>1.77299471058226</v>
+        <v>2.796357404331692</v>
       </c>
       <c r="G90" t="n">
-        <v>0.8795783715953144</v>
+        <v>0.7313461103131034</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3545989421164519</v>
+        <v>0.5592714808663384</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0001217656604371637</v>
+        <v>9.396337832565162e-05</v>
       </c>
       <c r="C91" t="n">
-        <v>1.614238590654401e-05</v>
+        <v>7.404247796020938e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>3.323979063197566e-06</v>
+        <v>2.48249593738808e-06</v>
       </c>
       <c r="E91" t="n">
-        <v>5.450708607399394e-06</v>
+        <v>3.98449608852997e-06</v>
       </c>
       <c r="F91" t="n">
-        <v>3.956179742073024</v>
+        <v>3.835205330854124</v>
       </c>
       <c r="G91" t="n">
-        <v>0.5557421324155962</v>
+        <v>0.5733780383938346</v>
       </c>
       <c r="H91" t="n">
-        <v>0.7912359484146048</v>
+        <v>0.7670410661708248</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="B92" t="n">
-        <v>0.000138710323279078</v>
+        <v>0.000115217578072859</v>
       </c>
       <c r="C92" t="n">
-        <v>1.336896684799697e-05</v>
+        <v>1.343409625481012e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>3.674114287561118e-06</v>
+        <v>2.964009510548062e-06</v>
       </c>
       <c r="E92" t="n">
-        <v>5.919741735664353e-06</v>
+        <v>4.884108681474162e-06</v>
       </c>
       <c r="F92" t="n">
-        <v>2.676053615423338</v>
+        <v>5.415250724427446</v>
       </c>
       <c r="G92" t="n">
-        <v>0.7497784235460684</v>
+        <v>0.3673284579053845</v>
       </c>
       <c r="H92" t="n">
-        <v>0.5352107230846676</v>
+        <v>1.083050144885489</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001688156860785783</v>
+        <v>0.000174083512525363</v>
       </c>
       <c r="C93" t="n">
-        <v>2.323889487769146e-05</v>
+        <v>2.172499672303673e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>4.392732325163261e-06</v>
+        <v>4.30395329770264e-06</v>
       </c>
       <c r="E93" t="n">
-        <v>7.244563862513586e-06</v>
+        <v>7.142529041827519e-06</v>
       </c>
       <c r="F93" t="n">
-        <v>2.4285703145523</v>
+        <v>5.111720144295324</v>
       </c>
       <c r="G93" t="n">
-        <v>0.7872119803593788</v>
+        <v>0.4023985421008726</v>
       </c>
       <c r="H93" t="n">
-        <v>0.48571406291046</v>
+        <v>1.022344028859065</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="B94" t="n">
-        <v>0.000255590833902877</v>
+        <v>0.0003653004771173616</v>
       </c>
       <c r="C94" t="n">
-        <v>4.023668764047207e-05</v>
+        <v>6.591534286843787e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>6.35254104758398e-06</v>
+        <v>8.847966566950537e-06</v>
       </c>
       <c r="E94" t="n">
-        <v>1.061253309994462e-05</v>
+        <v>1.501774425783742e-05</v>
       </c>
       <c r="F94" t="n">
-        <v>2.649381336962142</v>
+        <v>16.22045390683272</v>
       </c>
       <c r="G94" t="n">
-        <v>0.7538487771132638</v>
+        <v>0.006242057592780572</v>
       </c>
       <c r="H94" t="n">
-        <v>0.5298762673924283</v>
+        <v>3.244090781366544</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0005357917584890109</v>
+        <v>0.0004602484838240445</v>
       </c>
       <c r="C95" t="n">
-        <v>0.000124590355902024</v>
+        <v>9.675521339898933e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>1.299252431300548e-05</v>
+        <v>1.057157862551819e-05</v>
       </c>
       <c r="E95" t="n">
-        <v>2.198224156652162e-05</v>
+        <v>1.832863914047507e-05</v>
       </c>
       <c r="F95" t="n">
-        <v>6.167730718370932</v>
+        <v>8.265552218730917</v>
       </c>
       <c r="G95" t="n">
-        <v>0.2902384944290468</v>
+        <v>0.1421950432199287</v>
       </c>
       <c r="H95" t="n">
-        <v>1.233546143674186</v>
+        <v>1.653110443746183</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0006779690422635537</v>
+        <v>0.0003794256122194448</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0001578497577001845</v>
+        <v>6.991255789649042e-05</v>
       </c>
       <c r="D96" t="n">
-        <v>1.565827381563345e-05</v>
+        <v>8.707198393011351e-06</v>
       </c>
       <c r="E96" t="n">
-        <v>2.719216491425556e-05</v>
+        <v>1.488263227953496e-05</v>
       </c>
       <c r="F96" t="n">
-        <v>2.482603599607497</v>
+        <v>5.333742783177827</v>
       </c>
       <c r="G96" t="n">
-        <v>0.7791126943757669</v>
+        <v>0.3765210486114752</v>
       </c>
       <c r="H96" t="n">
-        <v>0.4965207199214993</v>
+        <v>1.066748556635565</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0005586171542598695</v>
+        <v>0.0001837555331158386</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0001154573475426258</v>
+        <v>3.935303253561086e-05</v>
       </c>
       <c r="D97" t="n">
-        <v>1.289156588662822e-05</v>
+        <v>4.608450792767502e-06</v>
       </c>
       <c r="E97" t="n">
-        <v>2.217169761235345e-05</v>
+        <v>7.902226882099959e-06</v>
       </c>
       <c r="F97" t="n">
-        <v>1.291540978334003</v>
+        <v>6.13027774622962</v>
       </c>
       <c r="G97" t="n">
-        <v>0.9357996946172649</v>
+        <v>0.2937479814467549</v>
       </c>
       <c r="H97" t="n">
-        <v>0.2583081956668006</v>
+        <v>1.226055549245924</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0002688094193977435</v>
+        <v>8.77833840461308e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>6.28016934634022e-05</v>
+        <v>1.86516969939712e-05</v>
       </c>
       <c r="D98" t="n">
-        <v>6.831268913125372e-06</v>
+        <v>2.359080071396508e-06</v>
       </c>
       <c r="E98" t="n">
-        <v>1.183324447804451e-05</v>
+        <v>3.987523254333275e-06</v>
       </c>
       <c r="F98" t="n">
-        <v>2.933135434272991</v>
+        <v>5.977164636688681</v>
       </c>
       <c r="G98" t="n">
-        <v>0.7102937420514703</v>
+        <v>0.3084472449768429</v>
       </c>
       <c r="H98" t="n">
-        <v>0.5866270868545982</v>
+        <v>1.195432927337736</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001292333247468629</v>
+        <v>5.468815806457532e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>3.231151437859317e-05</v>
+        <v>1.260189190211329e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>3.511450366152369e-06</v>
+        <v>1.502523711298063e-06</v>
       </c>
       <c r="E99" t="n">
-        <v>6.045437064388347e-06</v>
+        <v>2.557537439231187e-06</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5166572749042575</v>
+        <v>5.5000297639567</v>
       </c>
       <c r="G99" t="n">
-        <v>0.9915006654703531</v>
+        <v>0.3579426171360506</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1033314549808515</v>
+        <v>1.10000595279134</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="B100" t="n">
-        <v>8.013980226359964e-05</v>
+        <v>2.971624615127015e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>2.198339705109452e-05</v>
+        <v>6.122330591565587e-06</v>
       </c>
       <c r="D100" t="n">
-        <v>2.226667660885532e-06</v>
+        <v>8.57807813947495e-07</v>
       </c>
       <c r="E100" t="n">
-        <v>3.853361667813723e-06</v>
+        <v>1.420515501319526e-06</v>
       </c>
       <c r="F100" t="n">
-        <v>1.590884082553412</v>
+        <v>4.959930920598326</v>
       </c>
       <c r="G100" t="n">
-        <v>0.9023495259317241</v>
+        <v>0.420789845694845</v>
       </c>
       <c r="H100" t="n">
-        <v>0.3181768165106824</v>
+        <v>0.9919861841196653</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="B101" t="n">
-        <v>4.326937610716203e-05</v>
+        <v>1.926094630253857e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>9.616760036807539e-06</v>
+        <v>2.257052244219248e-06</v>
       </c>
       <c r="D101" t="n">
-        <v>1.268325714864947e-06</v>
+        <v>5.47936326858049e-07</v>
       </c>
       <c r="E101" t="n">
-        <v>2.127965542257229e-06</v>
+        <v>8.859300726546522e-07</v>
       </c>
       <c r="F101" t="n">
-        <v>1.240479740986004</v>
+        <v>2.460202584092007</v>
       </c>
       <c r="G101" t="n">
-        <v>0.9409354384270254</v>
+        <v>0.7824763490849627</v>
       </c>
       <c r="H101" t="n">
-        <v>0.2480959481972007</v>
+        <v>0.4920405168184013</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="B102" t="n">
-        <v>2.807797387606143e-05</v>
+        <v>1.34362146084029e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>3.308807462202583e-06</v>
+        <v>2.190490920656187e-06</v>
       </c>
       <c r="D102" t="n">
-        <v>8.133005748168787e-07</v>
+        <v>4.416921653874054e-07</v>
       </c>
       <c r="E102" t="n">
-        <v>1.340942779603205e-06</v>
+        <v>7.265624868045553e-07</v>
       </c>
       <c r="F102" t="n">
-        <v>1.906513192462519</v>
+        <v>6.943666229691827</v>
       </c>
       <c r="G102" t="n">
-        <v>0.8619236274796229</v>
+        <v>0.224863751216276</v>
       </c>
       <c r="H102" t="n">
-        <v>0.3813026384925039</v>
+        <v>1.388733245938365</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="B103" t="n">
-        <v>2.028575626847515e-05</v>
+        <v>1.305264713322583e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>2.798248412464778e-06</v>
+        <v>2.934374382330526e-06</v>
       </c>
       <c r="D103" t="n">
-        <v>6.664291665981159e-07</v>
+        <v>4.540111006670417e-07</v>
       </c>
       <c r="E103" t="n">
-        <v>1.107907075966412e-06</v>
+        <v>7.52471592842691e-07</v>
       </c>
       <c r="F103" t="n">
-        <v>6.666358938264094</v>
+        <v>7.455683087164164</v>
       </c>
       <c r="G103" t="n">
-        <v>0.2466592820193686</v>
+        <v>0.1888955438115281</v>
       </c>
       <c r="H103" t="n">
-        <v>1.333271787652819</v>
+        <v>1.491136617432833</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="B104" t="n">
-        <v>1.991856446244891e-05</v>
+        <v>1.565409290919784e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>3.877452345331668e-06</v>
+        <v>3.230962699770445e-06</v>
       </c>
       <c r="D104" t="n">
-        <v>6.942470393791759e-07</v>
+        <v>4.486743802200532e-07</v>
       </c>
       <c r="E104" t="n">
-        <v>1.17071419434984e-06</v>
+        <v>7.604440422584657e-07</v>
       </c>
       <c r="F104" t="n">
-        <v>2.569221192677759</v>
+        <v>5.641448811640658</v>
       </c>
       <c r="G104" t="n">
-        <v>0.7660360378252991</v>
+        <v>0.3426846359293685</v>
       </c>
       <c r="H104" t="n">
-        <v>0.5138442385355517</v>
+        <v>1.128289762328132</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="B105" t="n">
-        <v>2.300903090784873e-05</v>
+        <v>2.909931208032323e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>4.50934951952189e-06</v>
+        <v>-6.388252746669975e-07</v>
       </c>
       <c r="D105" t="n">
-        <v>6.722620227666428e-07</v>
+        <v>8.783491119196006e-07</v>
       </c>
       <c r="E105" t="n">
-        <v>1.148695542142752e-06</v>
+        <v>1.34506425561005e-06</v>
       </c>
       <c r="F105" t="n">
-        <v>6.346661254480018</v>
+        <v>2.850222482858148</v>
       </c>
       <c r="G105" t="n">
-        <v>0.27393325756889</v>
+        <v>0.7230638308675225</v>
       </c>
       <c r="H105" t="n">
-        <v>1.269332250896004</v>
+        <v>0.5700444965716296</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="B106" t="n">
-        <v>4.271341543053537e-05</v>
+        <v>4.178608936086427e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>1.891736023708973e-06</v>
+        <v>-6.132301376619612e-07</v>
       </c>
       <c r="D106" t="n">
-        <v>1.309534138476533e-06</v>
+        <v>1.104059791790168e-06</v>
       </c>
       <c r="E106" t="n">
-        <v>2.04847644933008e-06</v>
+        <v>1.730293204703944e-06</v>
       </c>
       <c r="F106" t="n">
-        <v>3.359040393037859</v>
+        <v>2.812783975807479</v>
       </c>
       <c r="G106" t="n">
-        <v>0.6448154600681859</v>
+        <v>0.7288218763097692</v>
       </c>
       <c r="H106" t="n">
-        <v>0.6718080786075717</v>
+        <v>0.5625567951614958</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="B107" t="n">
-        <v>6.247938300185442e-05</v>
+        <v>5.325853984490898e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>-2.315559225128059e-06</v>
+        <v>-2.940767478892927e-06</v>
       </c>
       <c r="D107" t="n">
-        <v>1.674361120469079e-06</v>
+        <v>1.431912829244729e-06</v>
       </c>
       <c r="E107" t="n">
-        <v>2.634721552698519e-06</v>
+        <v>2.203583640445189e-06</v>
       </c>
       <c r="F107" t="n">
-        <v>2.47283035739086</v>
+        <v>1.82993612389195</v>
       </c>
       <c r="G107" t="n">
-        <v>0.7805811986327066</v>
+        <v>0.8721404417753926</v>
       </c>
       <c r="H107" t="n">
-        <v>0.4945660714781719</v>
+        <v>0.3659872247783899</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="B108" t="n">
-        <v>7.807310158599218e-05</v>
+        <v>5.412162589007096e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>-4.289959345464572e-06</v>
+        <v>4.890508022218466e-08</v>
       </c>
       <c r="D108" t="n">
-        <v>2.144183281387577e-06</v>
+        <v>1.305726781374013e-06</v>
       </c>
       <c r="E108" t="n">
-        <v>3.296504979364537e-06</v>
+        <v>2.064338439932983e-06</v>
       </c>
       <c r="F108" t="n">
-        <v>2.552767735629307</v>
+        <v>1.466007753133702</v>
       </c>
       <c r="G108" t="n">
-        <v>0.7685280201987514</v>
+        <v>0.9169588609157404</v>
       </c>
       <c r="H108" t="n">
-        <v>0.5105535471258614</v>
+        <v>0.2932015506267405</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="B109" t="n">
-        <v>8.003436420437702e-05</v>
+        <v>5.486070151712534e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>-1.299787973740784e-06</v>
+        <v>3.000890538298016e-06</v>
       </c>
       <c r="D109" t="n">
-        <v>1.952953749782666e-06</v>
+        <v>1.416010977866239e-06</v>
       </c>
       <c r="E109" t="n">
-        <v>3.093890431672741e-06</v>
+        <v>2.260968986020145e-06</v>
       </c>
       <c r="F109" t="n">
-        <v>1.239758392241358</v>
+        <v>3.751578109724515</v>
       </c>
       <c r="G109" t="n">
-        <v>0.9410066975922353</v>
+        <v>0.5857074303846038</v>
       </c>
       <c r="H109" t="n">
-        <v>0.2479516784482715</v>
+        <v>0.750315621944903</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="B110" t="n">
-        <v>8.054183178048574e-05</v>
+        <v>5.288118770372362e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>1.959347352384621e-06</v>
+        <v>3.031767668738316e-06</v>
       </c>
       <c r="D110" t="n">
-        <v>2.119978668256311e-06</v>
+        <v>1.278815813042527e-06</v>
       </c>
       <c r="E110" t="n">
-        <v>3.402532194230757e-06</v>
+        <v>2.089186292428443e-06</v>
       </c>
       <c r="F110" t="n">
-        <v>4.414919387542382</v>
+        <v>4.64014073382193</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4913469871535853</v>
+        <v>0.4613547651081212</v>
       </c>
       <c r="H110" t="n">
-        <v>0.8829838775084765</v>
+        <v>0.9280281467643861</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="B111" t="n">
-        <v>7.76126580613337e-05</v>
+        <v>5.451346227125984e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>5.302707326216713e-06</v>
+        <v>2.700164224053123e-06</v>
       </c>
       <c r="D111" t="n">
-        <v>1.895663910422268e-06</v>
+        <v>1.324962831546697e-06</v>
       </c>
       <c r="E111" t="n">
-        <v>3.123303872264716e-06</v>
+        <v>2.14159528573686e-06</v>
       </c>
       <c r="F111" t="n">
-        <v>3.796426746126398</v>
+        <v>6.887525105539086</v>
       </c>
       <c r="G111" t="n">
-        <v>0.5790818542020812</v>
+        <v>0.2291405081619888</v>
       </c>
       <c r="H111" t="n">
-        <v>0.7592853492252797</v>
+        <v>1.377505021107817</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="B112" t="n">
-        <v>8.080407586840389e-05</v>
+        <v>5.539642131903197e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>3.203374248530281e-06</v>
+        <v>5.746065805661331e-06</v>
       </c>
       <c r="D112" t="n">
-        <v>1.981162508112699e-06</v>
+        <v>1.428832685774297e-06</v>
       </c>
       <c r="E112" t="n">
-        <v>3.217599176578725e-06</v>
+        <v>2.346106349830916e-06</v>
       </c>
       <c r="F112" t="n">
-        <v>5.667258537658406</v>
+        <v>8.078900855515261</v>
       </c>
       <c r="G112" t="n">
-        <v>0.3399536500239548</v>
+        <v>0.1519405200776268</v>
       </c>
       <c r="H112" t="n">
-        <v>1.133451707531681</v>
+        <v>1.615780171103052</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="B113" t="n">
-        <v>8.063469104784812e-05</v>
+        <v>5.844966824587688e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>1.000102737925426e-05</v>
+        <v>4.269281335663265e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>2.116345824437832e-06</v>
+        <v>1.416674477338767e-06</v>
       </c>
       <c r="E113" t="n">
-        <v>3.498994461137175e-06</v>
+        <v>2.307253318333901e-06</v>
       </c>
       <c r="F113" t="n">
-        <v>4.51952696734581</v>
+        <v>1.521572208289949</v>
       </c>
       <c r="G113" t="n">
-        <v>0.477275055802431</v>
+        <v>0.9105670420939984</v>
       </c>
       <c r="H113" t="n">
-        <v>0.9039053934691621</v>
+        <v>0.3043144416579897</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="B114" t="n">
-        <v>8.623954721805632e-05</v>
+        <v>6.113214948040063e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>6.37297477632243e-06</v>
+        <v>6.382640124491019e-06</v>
       </c>
       <c r="D114" t="n">
-        <v>2.114181094391105e-06</v>
+        <v>1.460518061378912e-06</v>
       </c>
       <c r="E114" t="n">
-        <v>3.491645475315355e-06</v>
+        <v>2.420937901722183e-06</v>
       </c>
       <c r="F114" t="n">
-        <v>1.763704342734127</v>
+        <v>3.286722255363294</v>
       </c>
       <c r="G114" t="n">
-        <v>0.8807783712093652</v>
+        <v>0.6558751040220263</v>
       </c>
       <c r="H114" t="n">
-        <v>0.3527408685468255</v>
+        <v>0.6573444510726587</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="B115" t="n">
-        <v>9.063241563097171e-05</v>
+        <v>6.532567694205565e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>9.60954363529254e-06</v>
+        <v>5.742163716653759e-06</v>
       </c>
       <c r="D115" t="n">
-        <v>2.18444215137152e-06</v>
+        <v>1.569873300847691e-06</v>
       </c>
       <c r="E115" t="n">
-        <v>3.633191308152441e-06</v>
+        <v>2.568646036297399e-06</v>
       </c>
       <c r="F115" t="n">
-        <v>2.395499936223185</v>
+        <v>1.747488525015525</v>
       </c>
       <c r="G115" t="n">
-        <v>0.792144079926306</v>
+        <v>0.8828635344493112</v>
       </c>
       <c r="H115" t="n">
-        <v>0.479099987244637</v>
+        <v>0.349497705003105</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="B116" t="n">
-        <v>9.52334256792443e-05</v>
+        <v>6.621471415060232e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>8.548943878090013e-06</v>
+        <v>7.507272162562731e-06</v>
       </c>
       <c r="D116" t="n">
-        <v>2.322376672859076e-06</v>
+        <v>1.597720224405925e-06</v>
       </c>
       <c r="E116" t="n">
-        <v>3.838935296066027e-06</v>
+        <v>2.65934222730134e-06</v>
       </c>
       <c r="F116" t="n">
-        <v>1.932341953416482</v>
+        <v>4.366277768259587</v>
       </c>
       <c r="G116" t="n">
-        <v>0.8584254034584967</v>
+        <v>0.497971802974391</v>
       </c>
       <c r="H116" t="n">
-        <v>0.3864683906832963</v>
+        <v>0.8732555536519173</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="B117" t="n">
-        <v>9.624753864031509e-05</v>
+        <v>6.788158405168714e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>1.277439411078144e-05</v>
+        <v>7.361973316408833e-06</v>
       </c>
       <c r="D117" t="n">
-        <v>2.349597561471762e-06</v>
+        <v>1.720478583144831e-06</v>
       </c>
       <c r="E117" t="n">
-        <v>3.943823265690374e-06</v>
+        <v>2.864381239362583e-06</v>
       </c>
       <c r="F117" t="n">
-        <v>2.965421300736407</v>
+        <v>10.12656529445761</v>
       </c>
       <c r="G117" t="n">
-        <v>0.7053170130399972</v>
+        <v>0.07172748272098459</v>
       </c>
       <c r="H117" t="n">
-        <v>0.5930842601472813</v>
+        <v>2.025313058891522</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0001003098835531739</v>
+        <v>6.623800125108906e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>1.245887538424623e-05</v>
+        <v>8.477125522968823e-06</v>
       </c>
       <c r="D118" t="n">
-        <v>2.570236859102792e-06</v>
+        <v>1.533133373044334e-06</v>
       </c>
       <c r="E118" t="n">
-        <v>4.278214871169161e-06</v>
+        <v>2.582164000825719e-06</v>
       </c>
       <c r="F118" t="n">
-        <v>6.636772895043692</v>
+        <v>4.393125395314839</v>
       </c>
       <c r="G118" t="n">
-        <v>0.2490852944228689</v>
+        <v>0.4943089398791206</v>
       </c>
       <c r="H118" t="n">
-        <v>1.327354579008738</v>
+        <v>0.8786250790629678</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="B119" t="n">
-        <v>9.803536252331628e-05</v>
+        <v>6.572642871832565e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>1.501762483280338e-05</v>
+        <v>8.04370948980926e-06</v>
       </c>
       <c r="D119" t="n">
-        <v>2.27743119040276e-06</v>
+        <v>1.593255662153344e-06</v>
       </c>
       <c r="E119" t="n">
-        <v>3.879120633776239e-06</v>
+        <v>2.641998632443826e-06</v>
       </c>
       <c r="F119" t="n">
-        <v>3.017349976387379</v>
+        <v>5.070712151837609</v>
       </c>
       <c r="G119" t="n">
-        <v>0.6973108331003028</v>
+        <v>0.4073115290004584</v>
       </c>
       <c r="H119" t="n">
-        <v>0.6034699952774758</v>
+        <v>1.014142430367522</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="B120" t="n">
-        <v>9.741317494068214e-05</v>
+        <v>5.496376374671906e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>1.311260842502718e-05</v>
+        <v>5.955755999065385e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>2.375092536576755e-06</v>
+        <v>1.337242514254488e-06</v>
       </c>
       <c r="E120" t="n">
-        <v>3.966596441970262e-06</v>
+        <v>2.219100878230742e-06</v>
       </c>
       <c r="F120" t="n">
-        <v>3.410688887621547</v>
+        <v>3.264533679161868</v>
       </c>
       <c r="G120" t="n">
-        <v>0.6369424962370125</v>
+        <v>0.6592757803388667</v>
       </c>
       <c r="H120" t="n">
-        <v>0.6821377775243095</v>
+        <v>0.6529067358323737</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="B121" t="n">
-        <v>8.12773514517237e-05</v>
+        <v>5.374818193762483e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>9.400600737187695e-06</v>
+        <v>7.48436685150482e-06</v>
       </c>
       <c r="D121" t="n">
-        <v>1.994759038686971e-06</v>
+        <v>1.406761735279852e-06</v>
       </c>
       <c r="E121" t="n">
-        <v>3.33616882996235e-06</v>
+        <v>2.338875501733814e-06</v>
       </c>
       <c r="F121" t="n">
-        <v>2.034372666668871</v>
+        <v>9.541594268818178</v>
       </c>
       <c r="G121" t="n">
-        <v>0.8443687756012849</v>
+        <v>0.08931609230822488</v>
       </c>
       <c r="H121" t="n">
-        <v>0.4068745333337742</v>
+        <v>1.908318853763636</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="B122" t="n">
-        <v>7.937612911102048e-05</v>
+        <v>4.291713815530519e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>1.372513659615111e-05</v>
+        <v>5.598240522840092e-06</v>
       </c>
       <c r="D122" t="n">
-        <v>2.083314525240369e-06</v>
+        <v>1.06548862245797e-06</v>
       </c>
       <c r="E122" t="n">
-        <v>3.507788397248837e-06</v>
+        <v>1.76484555816765e-06</v>
       </c>
       <c r="F122" t="n">
-        <v>4.590771954445954</v>
+        <v>4.748525157628314</v>
       </c>
       <c r="G122" t="n">
-        <v>0.4678310777530833</v>
+        <v>0.4473347809649255</v>
       </c>
       <c r="H122" t="n">
-        <v>0.9181543908891909</v>
+        <v>0.9497050315256628</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="B123" t="n">
-        <v>6.343419911593169e-05</v>
+        <v>3.427970347952398e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>8.099002703365809e-06</v>
+        <v>3.298914751599014e-06</v>
       </c>
       <c r="D123" t="n">
-        <v>1.595464046214765e-06</v>
+        <v>8.56820373924136e-07</v>
       </c>
       <c r="E123" t="n">
-        <v>2.665552254416208e-06</v>
+        <v>1.397829577486745e-06</v>
       </c>
       <c r="F123" t="n">
-        <v>4.362242590247584</v>
+        <v>0.7847276757514234</v>
       </c>
       <c r="G123" t="n">
-        <v>0.4985236648429306</v>
+        <v>0.9779972158431925</v>
       </c>
       <c r="H123" t="n">
-        <v>0.8724485180495168</v>
+        <v>0.1569455351502847</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="B124" t="n">
-        <v>5.033838862442364e-05</v>
+        <v>3.664136695863364e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>5.435582112396607e-06</v>
+        <v>4.536330767187428e-06</v>
       </c>
       <c r="D124" t="n">
-        <v>1.274754992020127e-06</v>
+        <v>1.043565533742552e-06</v>
       </c>
       <c r="E124" t="n">
-        <v>2.101444092288598e-06</v>
+        <v>1.70873386154092e-06</v>
       </c>
       <c r="F124" t="n">
-        <v>0.2952656108110054</v>
+        <v>3.577715403763314</v>
       </c>
       <c r="G124" t="n">
-        <v>0.9977311800541975</v>
+        <v>0.6116623017781393</v>
       </c>
       <c r="H124" t="n">
-        <v>0.05905312216220109</v>
+        <v>0.7155430807526628</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="B125" t="n">
-        <v>5.401702904077393e-05</v>
+        <v>4.640440721901179e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>6.906456620193301e-06</v>
+        <v>7.874274694345832e-06</v>
       </c>
       <c r="D125" t="n">
-        <v>1.559810138225309e-06</v>
+        <v>1.164249988906735e-06</v>
       </c>
       <c r="E125" t="n">
-        <v>2.576685767135367e-06</v>
+        <v>1.961077048116845e-06</v>
       </c>
       <c r="F125" t="n">
-        <v>1.492189694765087</v>
+        <v>5.68892351105421</v>
       </c>
       <c r="G125" t="n">
-        <v>0.9139693580648245</v>
+        <v>0.3376739968735285</v>
       </c>
       <c r="H125" t="n">
-        <v>0.2984379389530175</v>
+        <v>1.137784702210842</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="B126" t="n">
-        <v>6.815903658984634e-05</v>
+        <v>6.310641997229338e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>1.271080019876788e-05</v>
+        <v>8.958704126266772e-06</v>
       </c>
       <c r="D126" t="n">
-        <v>1.73138985269499e-06</v>
+        <v>1.530137790094867e-06</v>
       </c>
       <c r="E126" t="n">
-        <v>2.943037723784394e-06</v>
+        <v>2.57390037780365e-06</v>
       </c>
       <c r="F126" t="n">
-        <v>2.985541936543994</v>
+        <v>4.175773449215728</v>
       </c>
       <c r="G126" t="n">
-        <v>0.7022149718957331</v>
+        <v>0.5243965597111325</v>
       </c>
       <c r="H126" t="n">
-        <v>0.5971083873087989</v>
+        <v>0.8351546898431457</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="B127" t="n">
-        <v>9.293619495709996e-05</v>
+        <v>6.060939660090968e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>1.466920836242146e-05</v>
+        <v>7.0120453535539e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>2.276552198760982e-06</v>
+        <v>1.470328765479849e-06</v>
       </c>
       <c r="E127" t="n">
-        <v>3.860095927404342e-06</v>
+        <v>2.420719626023938e-06</v>
       </c>
       <c r="F127" t="n">
-        <v>2.160561472369752</v>
+        <v>1.236536426043865</v>
       </c>
       <c r="G127" t="n">
-        <v>0.8265117850750345</v>
+        <v>0.9413245371430163</v>
       </c>
       <c r="H127" t="n">
-        <v>0.4321122944739503</v>
+        <v>0.247307285208773</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="B128" t="n">
-        <v>8.942802022216339e-05</v>
+        <v>9.810691315690851e-05</v>
       </c>
       <c r="C128" t="n">
-        <v>1.087702747400392e-05</v>
+        <v>1.622930913229896e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>2.188111540179395e-06</v>
+        <v>2.345007114836305e-06</v>
       </c>
       <c r="E128" t="n">
-        <v>3.626724190575219e-06</v>
+        <v>3.963601976029829e-06</v>
       </c>
       <c r="F128" t="n">
-        <v>0.08551960366156008</v>
+        <v>4.175960594928533</v>
       </c>
       <c r="G128" t="n">
-        <v>0.9998896514796231</v>
+        <v>0.5243702382083001</v>
       </c>
       <c r="H128" t="n">
-        <v>0.01710392073231202</v>
+        <v>0.8351921189857066</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001443886327355593</v>
+        <v>0.0001799654697582121</v>
       </c>
       <c r="C129" t="n">
-        <v>2.464688073328939e-05</v>
+        <v>2.394831703701628e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>3.480980898374894e-06</v>
+        <v>4.326126216303804e-06</v>
       </c>
       <c r="E129" t="n">
-        <v>5.869151982206728e-06</v>
+        <v>7.167752387995151e-06</v>
       </c>
       <c r="F129" t="n">
-        <v>0.4190857540606205</v>
+        <v>4.635389434299452</v>
       </c>
       <c r="G129" t="n">
-        <v>0.9947875635467961</v>
+        <v>0.4619756147462758</v>
       </c>
       <c r="H129" t="n">
-        <v>0.0838171508121241</v>
+        <v>0.9270778868598905</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0002633628720497242</v>
+        <v>0.0001968132177370199</v>
       </c>
       <c r="C130" t="n">
-        <v>4.013841966043425e-05</v>
+        <v>2.676446276348422e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>6.3849864130796e-06</v>
+        <v>4.806372637977378e-06</v>
       </c>
       <c r="E130" t="n">
-        <v>1.059201118837761e-05</v>
+        <v>7.946845266241147e-06</v>
       </c>
       <c r="F130" t="n">
-        <v>1.594071199024618</v>
+        <v>5.128780390144485</v>
       </c>
       <c r="G130" t="n">
-        <v>0.9019653814825463</v>
+        <v>0.4003668280423155</v>
       </c>
       <c r="H130" t="n">
-        <v>0.3188142398049236</v>
+        <v>1.025756078028897</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002897779385346958</v>
+        <v>0.0002086749837641645</v>
       </c>
       <c r="C131" t="n">
-        <v>4.503056992732205e-05</v>
+        <v>3.19115521937797e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>7.117471888581624e-06</v>
+        <v>5.209320698767026e-06</v>
       </c>
       <c r="E131" t="n">
-        <v>1.180453815291124e-05</v>
+        <v>8.75933172928406e-06</v>
       </c>
       <c r="F131" t="n">
-        <v>1.438434435444042</v>
+        <v>7.180272010937203</v>
       </c>
       <c r="G131" t="n">
-        <v>0.9200632436887068</v>
+        <v>0.2075747829569562</v>
       </c>
       <c r="H131" t="n">
-        <v>0.2876868870888084</v>
+        <v>1.436054402187441</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0003099524921668068</v>
+        <v>0.0002369348710586995</v>
       </c>
       <c r="C132" t="n">
-        <v>5.499607559446691e-05</v>
+        <v>4.287170741264546e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>7.798027023315809e-06</v>
+        <v>5.560623066889868e-06</v>
       </c>
       <c r="E132" t="n">
-        <v>1.32909322138509e-05</v>
+        <v>9.406245239584258e-06</v>
       </c>
       <c r="F132" t="n">
-        <v>6.189478591831383</v>
+        <v>2.077440354146182</v>
       </c>
       <c r="G132" t="n">
-        <v>0.2882160597869962</v>
+        <v>0.8383292776483211</v>
       </c>
       <c r="H132" t="n">
-        <v>1.237895718366277</v>
+        <v>0.4154880708292364</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0003483479683084869</v>
+        <v>0.0002700992630753516</v>
       </c>
       <c r="C133" t="n">
-        <v>6.664093759227012e-05</v>
+        <v>4.021072513297707e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>8.255435670106582e-06</v>
+        <v>6.253643119363315e-06</v>
       </c>
       <c r="E133" t="n">
-        <v>1.410717732101477e-05</v>
+        <v>1.053293365912903e-05</v>
       </c>
       <c r="F133" t="n">
-        <v>0.4753408472239827</v>
+        <v>3.861249403765826</v>
       </c>
       <c r="G133" t="n">
-        <v>0.9929984057770571</v>
+        <v>0.5695607431622867</v>
       </c>
       <c r="H133" t="n">
-        <v>0.09506816944479654</v>
+        <v>0.7722498807531651</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0003990299385890005</v>
+        <v>0.0002836707881108108</v>
       </c>
       <c r="C134" t="n">
-        <v>6.58675297123997e-05</v>
+        <v>4.745388551682687e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>9.286568375295233e-06</v>
+        <v>6.530806419021645e-06</v>
       </c>
       <c r="E134" t="n">
-        <v>1.570079333883089e-05</v>
+        <v>1.103616513788412e-05</v>
       </c>
       <c r="F134" t="n">
-        <v>0.2070232805754608</v>
+        <v>3.365247190460676</v>
       </c>
       <c r="G134" t="n">
-        <v>0.9990364095872052</v>
+        <v>0.6438681318612632</v>
       </c>
       <c r="H134" t="n">
-        <v>0.04140465611509216</v>
+        <v>0.6730494380921351</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0004179601184743539</v>
+        <v>0.0002751835269137551</v>
       </c>
       <c r="C135" t="n">
-        <v>7.685211818159556e-05</v>
+        <v>5.37728106482021e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>9.686472305550173e-06</v>
+        <v>6.494476152285042e-06</v>
       </c>
       <c r="E135" t="n">
-        <v>1.64491021796609e-05</v>
+        <v>1.106812137352429e-05</v>
       </c>
       <c r="F135" t="n">
-        <v>0.3403103139839444</v>
+        <v>3.518923316209079</v>
       </c>
       <c r="G135" t="n">
-        <v>0.9968155067738231</v>
+        <v>0.6205262437834312</v>
       </c>
       <c r="H135" t="n">
-        <v>0.06806206279678888</v>
+        <v>0.7037846632418157</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="B136" t="n">
-        <v>0.000406405634503354</v>
+        <v>0.0002504464402057697</v>
       </c>
       <c r="C136" t="n">
-        <v>8.409572080280269e-05</v>
+        <v>4.303428162242401e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>9.665130061681822e-06</v>
+        <v>5.897302105778627e-06</v>
       </c>
       <c r="E136" t="n">
-        <v>1.658119329061872e-05</v>
+        <v>9.9988766740288e-06</v>
       </c>
       <c r="F136" t="n">
-        <v>0.3086076426112379</v>
+        <v>4.60303536860474</v>
       </c>
       <c r="G136" t="n">
-        <v>0.9974780573634514</v>
+        <v>0.4662171159516627</v>
       </c>
       <c r="H136" t="n">
-        <v>0.06172152852224758</v>
+        <v>0.920607073720948</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0003702977703709593</v>
+        <v>0.0002011314475708528</v>
       </c>
       <c r="C137" t="n">
-        <v>6.908089598999315e-05</v>
+        <v>4.35321833102629e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>8.764531275729831e-06</v>
+        <v>4.873576795733258e-06</v>
       </c>
       <c r="E137" t="n">
-        <v>1.488301167128904e-05</v>
+        <v>8.361998213799414e-06</v>
       </c>
       <c r="F137" t="n">
-        <v>0.3524005341191409</v>
+        <v>6.999720871920746</v>
       </c>
       <c r="G137" t="n">
-        <v>0.9965398925492891</v>
+        <v>0.2206610678736131</v>
       </c>
       <c r="H137" t="n">
-        <v>0.07048010682382819</v>
+        <v>1.399944174384149</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0002948995257876882</v>
+        <v>0.0001414734777265313</v>
       </c>
       <c r="C138" t="n">
-        <v>7.489953752098263e-05</v>
+        <v>3.08021548232366e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>7.195132799778955e-06</v>
+        <v>3.42929802169134e-06</v>
       </c>
       <c r="E138" t="n">
-        <v>1.246226481038379e-05</v>
+        <v>5.874162249847961e-06</v>
       </c>
       <c r="F138" t="n">
-        <v>1.849644150660753</v>
+        <v>12.71401152706182</v>
       </c>
       <c r="G138" t="n">
-        <v>0.8695338284206707</v>
+        <v>0.0262113846582094</v>
       </c>
       <c r="H138" t="n">
-        <v>0.3699288301321507</v>
+        <v>2.542802305412363</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="B139" t="n">
-        <v>0.000209278543987777</v>
+        <v>9.633394041621357e-05</v>
       </c>
       <c r="C139" t="n">
-        <v>5.149616339563659e-05</v>
+        <v>1.819503473369164e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>5.084232838614636e-06</v>
+        <v>2.437602462016885e-06</v>
       </c>
       <c r="E139" t="n">
-        <v>8.690597800196289e-06</v>
+        <v>4.063114252670674e-06</v>
       </c>
       <c r="F139" t="n">
-        <v>1.983161950483534</v>
+        <v>3.2798240617677</v>
       </c>
       <c r="G139" t="n">
-        <v>0.85146996469342</v>
+        <v>0.6569319966974281</v>
       </c>
       <c r="H139" t="n">
-        <v>0.3966323900967067</v>
+        <v>0.65596481235354</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0001419254507322519</v>
+        <v>7.915496349577627e-05</v>
       </c>
       <c r="C140" t="n">
-        <v>2.968173619843915e-05</v>
+        <v>1.726643516721033e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>3.62418807028225e-06</v>
+        <v>2.158634979262187e-06</v>
       </c>
       <c r="E140" t="n">
-        <v>6.125155150885121e-06</v>
+        <v>3.640778802804064e-06</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5208120793082043</v>
+        <v>3.733935288054798</v>
       </c>
       <c r="G140" t="n">
-        <v>0.9913414022262268</v>
+        <v>0.5883220854999172</v>
       </c>
       <c r="H140" t="n">
-        <v>0.1041624158616409</v>
+        <v>0.7467870576109596</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0001161933000821669</v>
+        <v>6.401331309717953e-05</v>
       </c>
       <c r="C141" t="n">
-        <v>2.648592335448025e-05</v>
+        <v>1.303764428463703e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>3.236761907413753e-06</v>
+        <v>1.653887590459536e-06</v>
       </c>
       <c r="E141" t="n">
-        <v>5.544323323234915e-06</v>
+        <v>2.765078102465787e-06</v>
       </c>
       <c r="F141" t="n">
-        <v>2.603288424912396</v>
+        <v>3.599989993029772</v>
       </c>
       <c r="G141" t="n">
-        <v>0.7608655686009259</v>
+        <v>0.6083147945842466</v>
       </c>
       <c r="H141" t="n">
-        <v>0.5206576849824793</v>
+        <v>0.7199979986059544</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="B142" t="n">
-        <v>9.372501604667109e-05</v>
+        <v>5.417478959608287e-05</v>
       </c>
       <c r="C142" t="n">
-        <v>2.06897717636098e-05</v>
+        <v>1.204406667685333e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>2.452265822121437e-06</v>
+        <v>1.506669790687811e-06</v>
       </c>
       <c r="E142" t="n">
-        <v>4.161108077257e-06</v>
+        <v>2.52632215341997e-06</v>
       </c>
       <c r="F142" t="n">
-        <v>1.282024556795798</v>
+        <v>6.413517703307715</v>
       </c>
       <c r="G142" t="n">
-        <v>0.9367704241684013</v>
+        <v>0.268034559896997</v>
       </c>
       <c r="H142" t="n">
-        <v>0.2564049113591597</v>
+        <v>1.282703540661543</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="B143" t="n">
-        <v>8.042128861528934e-05</v>
+        <v>6.0492084811831e-05</v>
       </c>
       <c r="C143" t="n">
-        <v>1.864442221542173e-05</v>
+        <v>1.275080594871023e-05</v>
       </c>
       <c r="D143" t="n">
-        <v>2.26786626848725e-06</v>
+        <v>1.696286163897339e-06</v>
       </c>
       <c r="E143" t="n">
-        <v>3.844787702839932e-06</v>
+        <v>2.832643880362721e-06</v>
       </c>
       <c r="F143" t="n">
-        <v>2.317192263026541</v>
+        <v>2.918757301424289</v>
       </c>
       <c r="G143" t="n">
-        <v>0.8037385202096803</v>
+        <v>0.7125095341496623</v>
       </c>
       <c r="H143" t="n">
-        <v>0.4634384526053082</v>
+        <v>0.5837514602848579</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="B144" t="n">
-        <v>8.979737603938117e-05</v>
+        <v>0.0002241072497233426</v>
       </c>
       <c r="C144" t="n">
-        <v>1.839057440246012e-05</v>
+        <v>4.915944909109062e-05</v>
       </c>
       <c r="D144" t="n">
-        <v>2.555865979790613e-06</v>
+        <v>5.514261984522029e-06</v>
       </c>
       <c r="E144" t="n">
-        <v>4.320096237155239e-06</v>
+        <v>9.377548459720082e-06</v>
       </c>
       <c r="F144" t="n">
-        <v>3.324579854702986</v>
+        <v>6.323561423486281</v>
       </c>
       <c r="G144" t="n">
-        <v>0.6500806718682667</v>
+        <v>0.2759956787073661</v>
       </c>
       <c r="H144" t="n">
-        <v>0.6649159709405972</v>
+        <v>1.264712284697256</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0003279356805084029</v>
+        <v>0.0004266304683344603</v>
       </c>
       <c r="C145" t="n">
-        <v>8.324391972507495e-05</v>
+        <v>9.875892837518205e-05</v>
       </c>
       <c r="D145" t="n">
-        <v>8.120616816129675e-06</v>
+        <v>9.348304799083279e-06</v>
       </c>
       <c r="E145" t="n">
-        <v>1.392062615371268e-05</v>
+        <v>1.654006097921136e-05</v>
       </c>
       <c r="F145" t="n">
-        <v>1.549061070906347</v>
+        <v>7.685971191556646</v>
       </c>
       <c r="G145" t="n">
-        <v>0.9073396840066429</v>
+        <v>0.1744127146454597</v>
       </c>
       <c r="H145" t="n">
-        <v>0.3098122141812695</v>
+        <v>1.537194238311329</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0006289872000099419</v>
+        <v>0.0004743590475960229</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0001594069578259294</v>
+        <v>0.0001111734817331194</v>
       </c>
       <c r="D146" t="n">
-        <v>1.378791011995457e-05</v>
+        <v>1.062771643601736e-05</v>
       </c>
       <c r="E146" t="n">
-        <v>2.434397615936302e-05</v>
+        <v>1.874162909786214e-05</v>
       </c>
       <c r="F146" t="n">
-        <v>1.456314186816928</v>
+        <v>7.478967833871025</v>
       </c>
       <c r="G146" t="n">
-        <v>0.9180554191362373</v>
+        <v>0.1873851178476332</v>
       </c>
       <c r="H146" t="n">
-        <v>0.2912628373633857</v>
+        <v>1.495793566774205</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0007002477910124301</v>
+        <v>0.0004982599422756639</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0001770985784781294</v>
+        <v>0.0001102769234969724</v>
       </c>
       <c r="D147" t="n">
-        <v>1.571137051438786e-05</v>
+        <v>1.132413583764125e-05</v>
       </c>
       <c r="E147" t="n">
-        <v>2.763863544876225e-05</v>
+        <v>1.976574286886097e-05</v>
       </c>
       <c r="F147" t="n">
-        <v>0.8833494828052361</v>
+        <v>7.538935354899255</v>
       </c>
       <c r="G147" t="n">
-        <v>0.9714153490722611</v>
+        <v>0.1835433609666634</v>
       </c>
       <c r="H147" t="n">
-        <v>0.1766698965610472</v>
+        <v>1.507787070979851</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="B148" t="n">
-        <v>0.000734529137036864</v>
+        <v>0.0004879751143949518</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0001853241971070521</v>
+        <v>0.0001087130361538983</v>
       </c>
       <c r="D148" t="n">
-        <v>1.670968077266712e-05</v>
+        <v>1.108960005197077e-05</v>
       </c>
       <c r="E148" t="n">
-        <v>2.918883316157295e-05</v>
+        <v>1.942634394817003e-05</v>
       </c>
       <c r="F148" t="n">
-        <v>0.6849208039419523</v>
+        <v>9.127890760951336</v>
       </c>
       <c r="G148" t="n">
-        <v>0.9837859951384328</v>
+        <v>0.104070475937962</v>
       </c>
       <c r="H148" t="n">
-        <v>0.1369841607883905</v>
+        <v>1.825578152190267</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0007194687470010965</v>
+        <v>0.0004869198939026139</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0001751129673920464</v>
+        <v>0.0001007849911517141</v>
       </c>
       <c r="D149" t="n">
-        <v>1.637242505194134e-05</v>
+        <v>1.106003218079486e-05</v>
       </c>
       <c r="E149" t="n">
-        <v>2.851081796857077e-05</v>
+        <v>1.919695300952452e-05</v>
       </c>
       <c r="F149" t="n">
-        <v>1.10308458022045</v>
+        <v>6.580995040609855</v>
       </c>
       <c r="G149" t="n">
-        <v>0.9538302815808336</v>
+        <v>0.2537127701586341</v>
       </c>
       <c r="H149" t="n">
-        <v>0.2206169160440901</v>
+        <v>1.316199008121971</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0007164243969765234</v>
+        <v>0.0006013526401345766</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0001675715266718879</v>
+        <v>0.0001360292270519872</v>
       </c>
       <c r="D150" t="n">
-        <v>1.629969164469694e-05</v>
+        <v>1.345246718720736e-05</v>
       </c>
       <c r="E150" t="n">
-        <v>2.831182872279505e-05</v>
+        <v>2.347550025496913e-05</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8640990368826229</v>
+        <v>6.678737432374355</v>
       </c>
       <c r="G150" t="n">
-        <v>0.972766056029247</v>
+        <v>0.245650101423395</v>
       </c>
       <c r="H150" t="n">
-        <v>0.1728198073765246</v>
+        <v>1.335747486474871</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0008871575213986209</v>
+        <v>0.0006278199869541277</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0002175664476588636</v>
+        <v>0.0001288630830054755</v>
       </c>
       <c r="D151" t="n">
-        <v>1.989402265360837e-05</v>
+        <v>1.39632324873393e-05</v>
       </c>
       <c r="E151" t="n">
-        <v>3.473832793672828e-05</v>
+        <v>2.431256881398365e-05</v>
       </c>
       <c r="F151" t="n">
-        <v>0.896185308929333</v>
+        <v>8.126387809811598</v>
       </c>
       <c r="G151" t="n">
-        <v>0.9704971953978732</v>
+        <v>0.1494063279182321</v>
       </c>
       <c r="H151" t="n">
-        <v>0.1792370617858666</v>
+        <v>1.62527756196232</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0009261393019295433</v>
+        <v>0.0006285871382441108</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0002134392240206748</v>
+        <v>0.0001262988350096476</v>
       </c>
       <c r="D152" t="n">
-        <v>2.059640872764227e-05</v>
+        <v>1.40709869231213e-05</v>
       </c>
       <c r="E152" t="n">
-        <v>3.573751596731267e-05</v>
+        <v>2.443671023733626e-05</v>
       </c>
       <c r="F152" t="n">
-        <v>1.331173949485394</v>
+        <v>6.51437592243726</v>
       </c>
       <c r="G152" t="n">
-        <v>0.9316914488570869</v>
+        <v>0.2593324380801134</v>
       </c>
       <c r="H152" t="n">
-        <v>0.2662347898970789</v>
+        <v>1.302875184487452</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0009275930559307739</v>
+        <v>0.0006357055987174125</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0002049775811675687</v>
+        <v>0.0001557457033359307</v>
       </c>
       <c r="D153" t="n">
-        <v>2.081488850838131e-05</v>
+        <v>1.402839081360911e-05</v>
       </c>
       <c r="E153" t="n">
-        <v>3.620285568343423e-05</v>
+        <v>2.495864766176841e-05</v>
       </c>
       <c r="F153" t="n">
-        <v>1.363912578343989</v>
+        <v>11.11541595996069</v>
       </c>
       <c r="G153" t="n">
-        <v>0.9282197716185536</v>
+        <v>0.04913904148346805</v>
       </c>
       <c r="H153" t="n">
-        <v>0.2727825156687978</v>
+        <v>2.223083191992137</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0009384172846718303</v>
+        <v>0.0006444184054480942</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0002559760624663799</v>
+        <v>0.0001482043763178031</v>
       </c>
       <c r="D154" t="n">
-        <v>2.068968388895745e-05</v>
+        <v>1.432100262602363e-05</v>
       </c>
       <c r="E154" t="n">
-        <v>3.664720975999575e-05</v>
+        <v>2.514941290875746e-05</v>
       </c>
       <c r="F154" t="n">
-        <v>1.820040378313384</v>
+        <v>8.13707859199552</v>
       </c>
       <c r="G154" t="n">
-        <v>0.8734431155304373</v>
+        <v>0.1488410139658008</v>
       </c>
       <c r="H154" t="n">
-        <v>0.3640080756626768</v>
+        <v>1.627415718399104</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0009499341740263583</v>
+        <v>0.0006359462523207123</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0002334615650125702</v>
+        <v>0.0001317147164444384</v>
       </c>
       <c r="D155" t="n">
-        <v>2.119204962122194e-05</v>
+        <v>1.416540672889913e-05</v>
       </c>
       <c r="E155" t="n">
-        <v>3.734954103609519e-05</v>
+        <v>2.474625686694818e-05</v>
       </c>
       <c r="F155" t="n">
-        <v>3.537103731580964</v>
+        <v>6.601959228851701</v>
       </c>
       <c r="G155" t="n">
-        <v>0.6177809496353448</v>
+        <v>0.2519652579091299</v>
       </c>
       <c r="H155" t="n">
-        <v>0.7074207463161928</v>
+        <v>1.32039184577034</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0009331929177550178</v>
+        <v>0.0006235779804285535</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0002152460148568375</v>
+        <v>0.0001257030987821146</v>
       </c>
       <c r="D156" t="n">
-        <v>2.084279838998893e-05</v>
+        <v>1.375751425419447e-05</v>
       </c>
       <c r="E156" t="n">
-        <v>3.63845952861927e-05</v>
+        <v>2.395897391681849e-05</v>
       </c>
       <c r="F156" t="n">
-        <v>1.484276178336297</v>
+        <v>5.98148643927111</v>
       </c>
       <c r="G156" t="n">
-        <v>0.9148771755346201</v>
+        <v>0.3080245393807468</v>
       </c>
       <c r="H156" t="n">
-        <v>0.2968552356672595</v>
+        <v>1.196297287854222</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0009169370077095767</v>
+        <v>0.0005207792962211723</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0002049080691948009</v>
+        <v>0.0001122972187447368</v>
       </c>
       <c r="D157" t="n">
-        <v>2.026811146748454e-05</v>
+        <v>1.13905010466629e-05</v>
       </c>
       <c r="E157" t="n">
-        <v>3.529485939088891e-05</v>
+        <v>2.001412490978437e-05</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9890884711387065</v>
+        <v>7.517369793042386</v>
       </c>
       <c r="G157" t="n">
-        <v>0.963441053155916</v>
+        <v>0.1849169764728571</v>
       </c>
       <c r="H157" t="n">
-        <v>0.1978176942277413</v>
+        <v>1.503473958608477</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="B158" t="n">
-        <v>0.00076848003097607</v>
+        <v>0.0003829154329758386</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0001790207597790411</v>
+        <v>7.897311884191144e-05</v>
       </c>
       <c r="D158" t="n">
-        <v>1.681697541636765e-05</v>
+        <v>8.785023948196267e-06</v>
       </c>
       <c r="E158" t="n">
-        <v>2.944696900871944e-05</v>
+        <v>1.517987556404289e-05</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8325083565714928</v>
+        <v>6.915913542091721</v>
       </c>
       <c r="G158" t="n">
-        <v>0.9749136858520403</v>
+        <v>0.2269694191788461</v>
       </c>
       <c r="H158" t="n">
-        <v>0.1665016713142985</v>
+        <v>1.383182708418344</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0005617457790071806</v>
+        <v>0.0002795197922945717</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0001318166715897575</v>
+        <v>5.319224262447357e-05</v>
       </c>
       <c r="D159" t="n">
-        <v>1.293633380417154e-05</v>
+        <v>6.314174120914733e-06</v>
       </c>
       <c r="E159" t="n">
-        <v>2.242514617042616e-05</v>
+        <v>1.089785995875795e-05</v>
       </c>
       <c r="F159" t="n">
-        <v>1.351346315656693</v>
+        <v>4.390208656024219</v>
       </c>
       <c r="G159" t="n">
-        <v>0.9295605594208788</v>
+        <v>0.4947061242439383</v>
       </c>
       <c r="H159" t="n">
-        <v>0.2702692631313386</v>
+        <v>0.8780417312048439</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0004109058677905052</v>
+        <v>0.0002924987358110526</v>
       </c>
       <c r="C160" t="n">
-        <v>8.871069880876111e-05</v>
+        <v>6.913626049994149e-05</v>
       </c>
       <c r="D160" t="n">
-        <v>9.330327168600727e-06</v>
+        <v>6.80678115359529e-06</v>
       </c>
       <c r="E160" t="n">
-        <v>1.617453578974185e-05</v>
+        <v>1.193422083589667e-05</v>
       </c>
       <c r="F160" t="n">
-        <v>1.212401048416381</v>
+        <v>10.16331812117907</v>
       </c>
       <c r="G160" t="n">
-        <v>0.9436821334832155</v>
+        <v>0.0707377670078142</v>
       </c>
       <c r="H160" t="n">
-        <v>0.2424802096832761</v>
+        <v>2.032663624235815</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="B161" t="n">
-        <v>0.000431550682565458</v>
+        <v>0.0002242774287237557</v>
       </c>
       <c r="C161" t="n">
-        <v>0.0001119638769162891</v>
+        <v>5.195453467761999e-05</v>
       </c>
       <c r="D161" t="n">
-        <v>1.009425986672415e-05</v>
+        <v>5.116638521467737e-06</v>
       </c>
       <c r="E161" t="n">
-        <v>1.778571515946896e-05</v>
+        <v>8.897335411889418e-06</v>
       </c>
       <c r="F161" t="n">
-        <v>4.609968682209415</v>
+        <v>5.238789617668317</v>
       </c>
       <c r="G161" t="n">
-        <v>0.4653061601314546</v>
+        <v>0.3874385323365687</v>
       </c>
       <c r="H161" t="n">
-        <v>0.9219937364418829</v>
+        <v>1.047757923533663</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0003312951520576627</v>
+        <v>0.000224571981984055</v>
       </c>
       <c r="C162" t="n">
-        <v>8.151500122981288e-05</v>
+        <v>4.602563158296332e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>7.596490795916123e-06</v>
+        <v>5.187373079119188e-06</v>
       </c>
       <c r="E162" t="n">
-        <v>1.32726430924785e-05</v>
+        <v>8.951485726135013e-06</v>
       </c>
       <c r="F162" t="n">
-        <v>0.5436721105251695</v>
+        <v>4.627139890075963</v>
       </c>
       <c r="G162" t="n">
-        <v>0.9904368048825785</v>
+        <v>0.4630548143447266</v>
       </c>
       <c r="H162" t="n">
-        <v>0.1087344221050339</v>
+        <v>0.9254279780151926</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0003316801359117859</v>
+        <v>0.0002163785791591971</v>
       </c>
       <c r="C163" t="n">
-        <v>7.458826450361362e-05</v>
+        <v>4.812558631122273e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>7.713652169550186e-06</v>
+        <v>4.944083961831533e-06</v>
       </c>
       <c r="E163" t="n">
-        <v>1.33942735616566e-05</v>
+        <v>8.599386723477728e-06</v>
       </c>
       <c r="F163" t="n">
-        <v>0.6737769120948069</v>
+        <v>7.640798329502882</v>
       </c>
       <c r="G163" t="n">
-        <v>0.9843768019529355</v>
+        <v>0.1771746720923923</v>
       </c>
       <c r="H163" t="n">
-        <v>0.1347553824189614</v>
+        <v>1.528159665900577</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0003178747540507316</v>
+        <v>0.0001989756280375526</v>
       </c>
       <c r="C164" t="n">
-        <v>7.846414534188717e-05</v>
+        <v>3.819721481500113e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>7.290454475041237e-06</v>
+        <v>4.602264091379951e-06</v>
       </c>
       <c r="E164" t="n">
-        <v>1.270672793656595e-05</v>
+        <v>7.861879099638806e-06</v>
       </c>
       <c r="F164" t="n">
-        <v>0.5893178480041836</v>
+        <v>4.007407548852482</v>
       </c>
       <c r="G164" t="n">
-        <v>0.9884871037932013</v>
+        <v>0.5483499372846317</v>
       </c>
       <c r="H164" t="n">
-        <v>0.1178635696008367</v>
+        <v>0.8014815097704965</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="B165" t="n">
-        <v>0.000292931175620548</v>
+        <v>0.0001849164468374692</v>
       </c>
       <c r="C165" t="n">
-        <v>6.34459418851892e-05</v>
+        <v>3.31791931938059e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>6.812300201466981e-06</v>
+        <v>4.385103342238454e-06</v>
       </c>
       <c r="E165" t="n">
-        <v>1.174554244097294e-05</v>
+        <v>7.427060694798688e-06</v>
       </c>
       <c r="F165" t="n">
-        <v>0.09358168379059084</v>
+        <v>5.909489784569468</v>
       </c>
       <c r="G165" t="n">
-        <v>0.9998621735563246</v>
+        <v>0.3151258389961307</v>
       </c>
       <c r="H165" t="n">
-        <v>0.01871633675811817</v>
+        <v>1.181897956913894</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="B166" t="n">
-        <v>0.000270519880563039</v>
+        <v>0.0001772881989689167</v>
       </c>
       <c r="C166" t="n">
-        <v>5.867643242736165e-05</v>
+        <v>3.726488778208292e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>6.467463577565071e-06</v>
+        <v>4.378858358458963e-06</v>
       </c>
       <c r="E166" t="n">
-        <v>1.101530318861429e-05</v>
+        <v>7.484269844846312e-06</v>
       </c>
       <c r="F166" t="n">
-        <v>1.011530764514707</v>
+        <v>9.177567945595698</v>
       </c>
       <c r="G166" t="n">
-        <v>0.9616303857548337</v>
+        <v>0.1021877546379976</v>
       </c>
       <c r="H166" t="n">
-        <v>0.2023061529029413</v>
+        <v>1.835513589119139</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0002614621656501925</v>
+        <v>0.0001690779254786708</v>
       </c>
       <c r="C167" t="n">
-        <v>6.671498840661447e-05</v>
+        <v>3.636808407503243e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>6.498847667261062e-06</v>
+        <v>3.914958934409762e-06</v>
       </c>
       <c r="E167" t="n">
-        <v>1.123692090737754e-05</v>
+        <v>6.743470229902997e-06</v>
       </c>
       <c r="F167" t="n">
-        <v>2.58709175797871</v>
+        <v>5.333321393880965</v>
       </c>
       <c r="G167" t="n">
-        <v>0.7633255330323534</v>
+        <v>0.3765690035018454</v>
       </c>
       <c r="H167" t="n">
-        <v>0.5174183515957419</v>
+        <v>1.066664278776193</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0002497922576718321</v>
+        <v>0.0001422437165162428</v>
       </c>
       <c r="C168" t="n">
-        <v>5.802102214493215e-05</v>
+        <v>2.577328406013922e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>5.815799442945698e-06</v>
+        <v>3.358298929378059e-06</v>
       </c>
       <c r="E168" t="n">
-        <v>1.006925686101032e-05</v>
+        <v>5.723884865407772e-06</v>
       </c>
       <c r="F168" t="n">
-        <v>1.619364910550453</v>
+        <v>7.802112651835706</v>
       </c>
       <c r="G168" t="n">
-        <v>0.8988976881665601</v>
+        <v>0.1674840890508047</v>
       </c>
       <c r="H168" t="n">
-        <v>0.3238729821100906</v>
+        <v>1.560422530367141</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0002101444170448624</v>
+        <v>0.000128609894755053</v>
       </c>
       <c r="C169" t="n">
-        <v>4.251841563835163e-05</v>
+        <v>2.603604705941498e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>4.984087938118199e-06</v>
+        <v>2.984028462864001e-06</v>
       </c>
       <c r="E169" t="n">
-        <v>8.490029099336386e-06</v>
+        <v>5.153894664161175e-06</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8805424013778054</v>
+        <v>4.967234417342338</v>
       </c>
       <c r="G169" t="n">
-        <v>0.9716142764574289</v>
+        <v>0.4198920361100222</v>
       </c>
       <c r="H169" t="n">
-        <v>0.1761084802755611</v>
+        <v>0.9934468834684675</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001894586920802611</v>
+        <v>8.211120019027338e-05</v>
       </c>
       <c r="C170" t="n">
-        <v>4.204428727623316e-05</v>
+        <v>1.800752181743175e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>4.421695038108539e-06</v>
+        <v>2.19554383769421e-06</v>
       </c>
       <c r="E170" t="n">
-        <v>7.686600796829389e-06</v>
+        <v>3.712449483238717e-06</v>
       </c>
       <c r="F170" t="n">
-        <v>1.55360101696271</v>
+        <v>6.520674070360228</v>
       </c>
       <c r="G170" t="n">
-        <v>0.9068026165695015</v>
+        <v>0.2587968101907389</v>
       </c>
       <c r="H170" t="n">
-        <v>0.3107202033925419</v>
+        <v>1.304134814072046</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0001198925017705781</v>
+        <v>6.055187362404291e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>2.822643869862106e-05</v>
+        <v>1.337974659237954e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>3.259411342186375e-06</v>
+        <v>1.538436014086576e-06</v>
       </c>
       <c r="E171" t="n">
-        <v>5.546345712936832e-06</v>
+        <v>2.624876912334187e-06</v>
       </c>
       <c r="F171" t="n">
-        <v>1.200676109130895</v>
+        <v>6.07543554609636</v>
       </c>
       <c r="G171" t="n">
-        <v>0.9448124849972528</v>
+        <v>0.2989477770920869</v>
       </c>
       <c r="H171" t="n">
-        <v>0.2401352218261791</v>
+        <v>1.215087109219272</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="B172" t="n">
-        <v>8.967951224754498e-05</v>
+        <v>6.673380305846012e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>1.954150999673328e-05</v>
+        <v>1.596563560339445e-05</v>
       </c>
       <c r="D172" t="n">
-        <v>2.30196264941168e-06</v>
+        <v>1.748768420225866e-06</v>
       </c>
       <c r="E172" t="n">
-        <v>3.960956690466874e-06</v>
+        <v>2.979311287247337e-06</v>
       </c>
       <c r="F172" t="n">
-        <v>4.191260544854587</v>
+        <v>5.437268519117845</v>
       </c>
       <c r="G172" t="n">
-        <v>0.5222206962481839</v>
+        <v>0.3648736576022455</v>
       </c>
       <c r="H172" t="n">
-        <v>0.8382521089709174</v>
+        <v>1.087453703823569</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="B173" t="n">
-        <v>9.773159963804307e-05</v>
+        <v>8.917377106153002e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>2.356903115934152e-05</v>
+        <v>1.604723385521201e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>2.595639271140028e-06</v>
+        <v>2.544479163175304e-06</v>
       </c>
       <c r="E173" t="n">
-        <v>4.479284249800018e-06</v>
+        <v>4.194543114288799e-06</v>
       </c>
       <c r="F173" t="n">
-        <v>3.720921426504212</v>
+        <v>3.42069492720108</v>
       </c>
       <c r="G173" t="n">
-        <v>0.5902536439969609</v>
+        <v>0.6354199840983977</v>
       </c>
       <c r="H173" t="n">
-        <v>0.7441842853008424</v>
+        <v>0.6841389854402159</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001318813742898141</v>
+        <v>0.0001154187861987452</v>
       </c>
       <c r="C174" t="n">
-        <v>2.459864007586221e-05</v>
+        <v>2.343086831577944e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>3.796561561283571e-06</v>
+        <v>2.889527186902648e-06</v>
       </c>
       <c r="E174" t="n">
-        <v>6.319548652861234e-06</v>
+        <v>4.906822196330657e-06</v>
       </c>
       <c r="F174" t="n">
-        <v>2.582397025203688</v>
+        <v>6.544017489953545</v>
       </c>
       <c r="G174" t="n">
-        <v>0.764037985492756</v>
+        <v>0.2568194920681682</v>
       </c>
       <c r="H174" t="n">
-        <v>0.5164794050407376</v>
+        <v>1.308803497990709</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001697976989320712</v>
+        <v>0.0001271198097526713</v>
       </c>
       <c r="C175" t="n">
-        <v>3.927468578727779e-05</v>
+        <v>2.521258246141692e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>4.258039943737687e-06</v>
+        <v>3.584994941301857e-06</v>
       </c>
       <c r="E175" t="n">
-        <v>7.236323507730311e-06</v>
+        <v>5.914856181323484e-06</v>
       </c>
       <c r="F175" t="n">
-        <v>1.952282158643784</v>
+        <v>4.194399018073913</v>
       </c>
       <c r="G175" t="n">
-        <v>0.8557075445204684</v>
+        <v>0.521780337473057</v>
       </c>
       <c r="H175" t="n">
-        <v>0.3904564317287568</v>
+        <v>0.8388798036147825</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0001868069183830232</v>
+        <v>0.0001753159354422004</v>
       </c>
       <c r="C176" t="n">
-        <v>3.890078041832896e-05</v>
+        <v>3.696247170005555e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>5.309024902973859e-06</v>
+        <v>5.172750912776002e-06</v>
       </c>
       <c r="E176" t="n">
-        <v>8.829520742292436e-06</v>
+        <v>8.483672265355427e-06</v>
       </c>
       <c r="F176" t="n">
-        <v>4.595215529999365</v>
+        <v>3.353353494125021</v>
       </c>
       <c r="G176" t="n">
-        <v>0.4672458711375936</v>
+        <v>0.6456837134695083</v>
       </c>
       <c r="H176" t="n">
-        <v>0.9190431059998729</v>
+        <v>0.6706706988250042</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0002586981361769891</v>
+        <v>0.0002619005846335759</v>
       </c>
       <c r="C177" t="n">
-        <v>5.12069590871382e-05</v>
+        <v>5.366602265817849e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>7.672149443776004e-06</v>
+        <v>7.004294225219164e-06</v>
       </c>
       <c r="E177" t="n">
-        <v>1.264633714478885e-05</v>
+        <v>1.16831647498764e-05</v>
       </c>
       <c r="F177" t="n">
-        <v>2.858260353315107</v>
+        <v>4.028939462521276</v>
       </c>
       <c r="G177" t="n">
-        <v>0.7218268157529905</v>
+        <v>0.5452569471526053</v>
       </c>
       <c r="H177" t="n">
-        <v>0.5716520706630213</v>
+        <v>0.8057878925042552</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003878414107190129</v>
+        <v>0.0003112621966616535</v>
       </c>
       <c r="C178" t="n">
-        <v>8.208689780606919e-05</v>
+        <v>5.900409543316317e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>1.045527484022814e-05</v>
+        <v>8.612502162804489e-06</v>
       </c>
       <c r="E178" t="n">
-        <v>1.755083852905804e-05</v>
+        <v>1.421749491990476e-05</v>
       </c>
       <c r="F178" t="n">
-        <v>3.173044634243841</v>
+        <v>5.715522648442303</v>
       </c>
       <c r="G178" t="n">
-        <v>0.6733273150250048</v>
+        <v>0.3348910764487921</v>
       </c>
       <c r="H178" t="n">
-        <v>0.6346089268487682</v>
+        <v>1.143104529688461</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0004559118460993071</v>
+        <v>0.0003812752810635608</v>
       </c>
       <c r="C179" t="n">
-        <v>8.758906345639043e-05</v>
+        <v>8.247589977625715e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>1.276342615577669e-05</v>
+        <v>1.00252384202025e-05</v>
       </c>
       <c r="E179" t="n">
-        <v>2.10335635586647e-05</v>
+        <v>1.695288987617607e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>2.063150308859521</v>
+        <v>5.028821149031629</v>
       </c>
       <c r="G179" t="n">
-        <v>0.8403398089747902</v>
+        <v>0.4123729571623617</v>
       </c>
       <c r="H179" t="n">
-        <v>0.4126300617719042</v>
+        <v>1.005764229806326</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0005568689496667678</v>
+        <v>0.0005131058657223901</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0001299498380384531</v>
+        <v>0.000138867099124408</v>
       </c>
       <c r="D180" t="n">
-        <v>1.476989646183198e-05</v>
+        <v>1.273391675465917e-05</v>
       </c>
       <c r="E180" t="n">
-        <v>2.503254799468848e-05</v>
+        <v>2.240511027518817e-05</v>
       </c>
       <c r="F180" t="n">
-        <v>1.51733716277701</v>
+        <v>10.35257996977864</v>
       </c>
       <c r="G180" t="n">
-        <v>0.9110604805527981</v>
+        <v>0.06583964905056185</v>
       </c>
       <c r="H180" t="n">
-        <v>0.303467432555402</v>
+        <v>2.070515993955728</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0007534041091065827</v>
+        <v>0.0005040803783561956</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0002276180775019353</v>
+        <v>0.0001320905664111677</v>
       </c>
       <c r="D181" t="n">
-        <v>1.87827550251932e-05</v>
+        <v>1.15080962399566e-05</v>
       </c>
       <c r="E181" t="n">
-        <v>3.309400548314453e-05</v>
+        <v>2.019715600338556e-05</v>
       </c>
       <c r="F181" t="n">
-        <v>3.177347465161187</v>
+        <v>5.837985188460321</v>
       </c>
       <c r="G181" t="n">
-        <v>0.6726655347800368</v>
+        <v>0.3223042809480567</v>
       </c>
       <c r="H181" t="n">
-        <v>0.6354694930322373</v>
+        <v>1.167597037692064</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0007439401171305828</v>
+        <v>0.0007630451460646181</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0002072256468826409</v>
+        <v>0.0001693136550257572</v>
       </c>
       <c r="D182" t="n">
-        <v>1.697394458678588e-05</v>
+        <v>1.853788069047697e-05</v>
       </c>
       <c r="E182" t="n">
-        <v>2.985438291868821e-05</v>
+        <v>3.189844534729682e-05</v>
       </c>
       <c r="F182" t="n">
-        <v>0.5782472213097749</v>
+        <v>5.573130272420128</v>
       </c>
       <c r="G182" t="n">
-        <v>0.9889775265725007</v>
+        <v>0.3499935009025067</v>
       </c>
       <c r="H182" t="n">
-        <v>0.115649444261955</v>
+        <v>1.114626054484026</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="B183" t="n">
-        <v>0.001125363710114792</v>
+        <v>0.0009792085096289485</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0002688812441148623</v>
+        <v>0.0001970203424254581</v>
       </c>
       <c r="D183" t="n">
-        <v>2.7516102841357e-05</v>
+        <v>2.362971010094832e-05</v>
       </c>
       <c r="E183" t="n">
-        <v>4.751700181054852e-05</v>
+        <v>4.073817573554793e-05</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9244826891128052</v>
+        <v>11.75020774100635</v>
       </c>
       <c r="G183" t="n">
-        <v>0.9684239413124244</v>
+        <v>0.03837554155775649</v>
       </c>
       <c r="H183" t="n">
-        <v>0.184896537822561</v>
+        <v>2.350041548201269</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001440179633580671</v>
+        <v>0.001280411529740756</v>
       </c>
       <c r="C184" t="n">
-        <v>0.0003345028441398094</v>
+        <v>0.000264669298285426</v>
       </c>
       <c r="D184" t="n">
-        <v>3.485068093237173e-05</v>
+        <v>2.831982777582837e-05</v>
       </c>
       <c r="E184" t="n">
-        <v>6.016191501647213e-05</v>
+        <v>4.975615968000658e-05</v>
       </c>
       <c r="F184" t="n">
-        <v>5.199680622580166</v>
+        <v>9.805160709383546</v>
       </c>
       <c r="G184" t="n">
-        <v>0.3920002980976762</v>
+        <v>0.08094796485678735</v>
       </c>
       <c r="H184" t="n">
-        <v>1.039936124516033</v>
+        <v>1.961032141876709</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001885922059351911</v>
+        <v>0.001496678104824153</v>
       </c>
       <c r="C185" t="n">
-        <v>0.0004253441786091744</v>
+        <v>0.0003995156084578379</v>
       </c>
       <c r="D185" t="n">
-        <v>4.178806600932117e-05</v>
+        <v>3.256701681505846e-05</v>
       </c>
       <c r="E185" t="n">
-        <v>7.360724542964165e-05</v>
+        <v>5.822981943008646e-05</v>
       </c>
       <c r="F185" t="n">
-        <v>6.101385168640315</v>
+        <v>7.265614864445987</v>
       </c>
       <c r="G185" t="n">
-        <v>0.2964783596563442</v>
+        <v>0.2016237476630998</v>
       </c>
       <c r="H185" t="n">
-        <v>1.220277033728063</v>
+        <v>1.453122972889197</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="B186" t="n">
-        <v>0.002210483324493115</v>
+        <v>0.001457577445896527</v>
       </c>
       <c r="C186" t="n">
-        <v>0.0006339935068178166</v>
+        <v>0.0003252488138718139</v>
       </c>
       <c r="D186" t="n">
-        <v>4.809752711448332e-05</v>
+        <v>3.092145890793698e-05</v>
       </c>
       <c r="E186" t="n">
-        <v>8.598282641704471e-05</v>
+        <v>5.520204452517119e-05</v>
       </c>
       <c r="F186" t="n">
-        <v>0.8369887859293483</v>
+        <v>12.65498376910438</v>
       </c>
       <c r="G186" t="n">
-        <v>0.974614336410776</v>
+        <v>0.02683563665551809</v>
       </c>
       <c r="H186" t="n">
-        <v>0.1673977571858697</v>
+        <v>2.530996753820876</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="B187" t="n">
-        <v>0.00215246680226659</v>
+        <v>0.001431590145847084</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0005251905408095683</v>
+        <v>0.0003449231914082198</v>
       </c>
       <c r="D187" t="n">
-        <v>4.552353024580753e-05</v>
+        <v>3.069530960763418e-05</v>
       </c>
       <c r="E187" t="n">
-        <v>8.068999022750973e-05</v>
+        <v>5.452369553031769e-05</v>
       </c>
       <c r="F187" t="n">
-        <v>5.574995255911814</v>
+        <v>7.779496727735982</v>
       </c>
       <c r="G187" t="n">
-        <v>0.3497924392558314</v>
+        <v>0.1688140090827927</v>
       </c>
       <c r="H187" t="n">
-        <v>1.114999051182363</v>
+        <v>1.555899345547196</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="B188" t="n">
-        <v>0.002112144239516229</v>
+        <v>0.001349132298396453</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0005555564449138846</v>
+        <v>0.0003006148709177185</v>
       </c>
       <c r="D188" t="n">
-        <v>4.520420628309984e-05</v>
+        <v>2.9259411388321e-05</v>
       </c>
       <c r="E188" t="n">
-        <v>7.990371528441599e-05</v>
+        <v>5.191561965341232e-05</v>
       </c>
       <c r="F188" t="n">
-        <v>0.4381367748239288</v>
+        <v>12.52861499672362</v>
       </c>
       <c r="G188" t="n">
-        <v>0.9942137957756993</v>
+        <v>0.02822023867669874</v>
       </c>
       <c r="H188" t="n">
-        <v>0.08762735496478576</v>
+        <v>2.505722999344724</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001991479906987242</v>
+        <v>0.001171849507962125</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0004869081784472236</v>
+        <v>0.0002736795024913781</v>
       </c>
       <c r="D189" t="n">
-        <v>4.31285214562462e-05</v>
+        <v>2.46146554272646e-05</v>
       </c>
       <c r="E189" t="n">
-        <v>7.606882516601778e-05</v>
+        <v>4.420065707346739e-05</v>
       </c>
       <c r="F189" t="n">
-        <v>5.263245776813775</v>
+        <v>11.03990092596358</v>
       </c>
       <c r="G189" t="n">
-        <v>0.3846051956224128</v>
+        <v>0.05059457991631661</v>
       </c>
       <c r="H189" t="n">
-        <v>1.052649155362755</v>
+        <v>2.207980185192715</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001731001401343121</v>
+        <v>0.001114045629841155</v>
       </c>
       <c r="C190" t="n">
-        <v>0.0004400589615130724</v>
+        <v>0.0002661032833628018</v>
       </c>
       <c r="D190" t="n">
-        <v>3.62373561624012e-05</v>
+        <v>2.358752523486564e-05</v>
       </c>
       <c r="E190" t="n">
-        <v>6.463163404546217e-05</v>
+        <v>4.240823677824108e-05</v>
       </c>
       <c r="F190" t="n">
-        <v>3.814627222991235</v>
+        <v>13.27790922192128</v>
       </c>
       <c r="G190" t="n">
-        <v>0.5764018618913067</v>
+        <v>0.0209090855624512</v>
       </c>
       <c r="H190" t="n">
-        <v>0.762925444598247</v>
+        <v>2.655581844384256</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="B191" t="n">
-        <v>0.001645972024114981</v>
+        <v>0.0009553741209153603</v>
       </c>
       <c r="C191" t="n">
-        <v>0.000425660252069001</v>
+        <v>0.000238443197090146</v>
       </c>
       <c r="D191" t="n">
-        <v>3.477018246145187e-05</v>
+        <v>2.027073480745248e-05</v>
       </c>
       <c r="E191" t="n">
-        <v>6.213607709212422e-05</v>
+        <v>3.656547478173141e-05</v>
       </c>
       <c r="F191" t="n">
-        <v>5.877613436262179</v>
+        <v>14.25359440633957</v>
       </c>
       <c r="G191" t="n">
-        <v>0.3183104387242487</v>
+        <v>0.0140763152268274</v>
       </c>
       <c r="H191" t="n">
-        <v>1.175522687252436</v>
+        <v>2.850718881267914</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="B192" t="n">
-        <v>0.001410258982933133</v>
+        <v>0.0007597650355808409</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0003851934964467324</v>
+        <v>0.0001967686445613764</v>
       </c>
       <c r="D192" t="n">
-        <v>2.98385257787346e-05</v>
+        <v>1.618211755818622e-05</v>
       </c>
       <c r="E192" t="n">
-        <v>5.343146781877119e-05</v>
+        <v>2.916279224980825e-05</v>
       </c>
       <c r="F192" t="n">
-        <v>5.849621715101451</v>
+        <v>12.79559133943199</v>
       </c>
       <c r="G192" t="n">
-        <v>0.3211275157353407</v>
+        <v>0.02537148263831953</v>
       </c>
       <c r="H192" t="n">
-        <v>1.16992434302029</v>
+        <v>2.559118267886398</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="B193" t="n">
-        <v>0.001121443710617881</v>
+        <v>0.0006408187193375071</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0003134147969752473</v>
+        <v>0.0001512101513502905</v>
       </c>
       <c r="D193" t="n">
-        <v>2.384760333292502e-05</v>
+        <v>1.385078567844846e-05</v>
       </c>
       <c r="E193" t="n">
-        <v>4.277344003073552e-05</v>
+        <v>2.465664944431437e-05</v>
       </c>
       <c r="F193" t="n">
-        <v>4.893158455398809</v>
+        <v>9.824163274453486</v>
       </c>
       <c r="G193" t="n">
-        <v>0.4290580723436346</v>
+        <v>0.08037359984811848</v>
       </c>
       <c r="H193" t="n">
-        <v>0.9786316910797618</v>
+        <v>1.964832654890697</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0009449148060501429</v>
+        <v>0.0004697096762260209</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0002421789905302759</v>
+        <v>0.0001281388290366396</v>
       </c>
       <c r="D194" t="n">
-        <v>2.045575623731594e-05</v>
+        <v>1.050482982785888e-05</v>
       </c>
       <c r="E194" t="n">
-        <v>3.649257992006634e-05</v>
+        <v>1.860317154612863e-05</v>
       </c>
       <c r="F194" t="n">
-        <v>5.216721345925854</v>
+        <v>6.922790957129925</v>
       </c>
       <c r="G194" t="n">
-        <v>0.3900079651762029</v>
+        <v>0.2264460670477385</v>
       </c>
       <c r="H194" t="n">
-        <v>1.043344269185171</v>
+        <v>1.384558191425985</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0006915083369279608</v>
+        <v>0.0004872115355994636</v>
       </c>
       <c r="C195" t="n">
-        <v>0.0002017422321275225</v>
+        <v>0.0001186822828810946</v>
       </c>
       <c r="D195" t="n">
-        <v>1.552230790249787e-05</v>
+        <v>1.061156946200952e-05</v>
       </c>
       <c r="E195" t="n">
-        <v>2.757167697933467e-05</v>
+        <v>1.898178312470856e-05</v>
       </c>
       <c r="F195" t="n">
-        <v>0.698350622551398</v>
+        <v>11.90074038576309</v>
       </c>
       <c r="G195" t="n">
-        <v>0.9830590742621726</v>
+        <v>0.03617347230243718</v>
       </c>
       <c r="H195" t="n">
-        <v>0.1396701245102796</v>
+        <v>2.380148077152618</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0007186372954272539</v>
+        <v>0.000328362512130552</v>
       </c>
       <c r="C196" t="n">
-        <v>0.0001930143328108533</v>
+        <v>7.391925051520868e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>1.565194244321665e-05</v>
+        <v>7.297477267085411e-06</v>
       </c>
       <c r="E196" t="n">
-        <v>2.790177126312348e-05</v>
+        <v>1.289181609692689e-05</v>
       </c>
       <c r="F196" t="n">
-        <v>3.823588379840169</v>
+        <v>10.34132153110649</v>
       </c>
       <c r="G196" t="n">
-        <v>0.5750842518031642</v>
+        <v>0.06612192507985241</v>
       </c>
       <c r="H196" t="n">
-        <v>0.7647176759680337</v>
+        <v>2.068264306221297</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0004831239502015519</v>
+        <v>0.0002007442298034332</v>
       </c>
       <c r="C197" t="n">
-        <v>0.0001176913119672195</v>
+        <v>4.151620843001493e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>1.07884726113559e-05</v>
+        <v>4.788615029825645e-06</v>
       </c>
       <c r="E197" t="n">
-        <v>1.910609264494767e-05</v>
+        <v>8.165497320099101e-06</v>
       </c>
       <c r="F197" t="n">
-        <v>4.995062764612826</v>
+        <v>5.625154574293457</v>
       </c>
       <c r="G197" t="n">
-        <v>0.4164830321562935</v>
+        <v>0.3444172884727019</v>
       </c>
       <c r="H197" t="n">
-        <v>0.9990125529225653</v>
+        <v>1.125030914858691</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0002957067503787356</v>
+        <v>0.000203647798427275</v>
       </c>
       <c r="C198" t="n">
-        <v>6.812357265594077e-05</v>
+        <v>4.054178213778996e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>7.11035251595372e-06</v>
+        <v>4.707465213579814e-06</v>
       </c>
       <c r="E198" t="n">
-        <v>1.220035705188731e-05</v>
+        <v>8.112613250154169e-06</v>
       </c>
       <c r="F198" t="n">
-        <v>1.020387457025313</v>
+        <v>4.166755949410344</v>
       </c>
       <c r="G198" t="n">
-        <v>0.9609046787840571</v>
+        <v>0.5256656655998951</v>
       </c>
       <c r="H198" t="n">
-        <v>0.2040774914050626</v>
+        <v>0.8333511898820689</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002987254459382051</v>
+        <v>0.0001524158644392351</v>
       </c>
       <c r="C199" t="n">
-        <v>6.692035647602211e-05</v>
+        <v>2.402406852515911e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>6.971364680799235e-06</v>
+        <v>3.686134483406535e-06</v>
       </c>
       <c r="E199" t="n">
-        <v>1.218077606135814e-05</v>
+        <v>6.154928770273574e-06</v>
       </c>
       <c r="F199" t="n">
-        <v>1.711629560471378</v>
+        <v>4.330893836248348</v>
       </c>
       <c r="G199" t="n">
-        <v>0.8874313876786958</v>
+        <v>0.5028228145053653</v>
       </c>
       <c r="H199" t="n">
-        <v>0.3423259120942755</v>
+        <v>0.8661787672496697</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0002238212670562856</v>
+        <v>0.0001459810787927431</v>
       </c>
       <c r="C200" t="n">
-        <v>3.941938945940053e-05</v>
+        <v>2.836610237319284e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>5.471348487887426e-06</v>
+        <v>3.424594172577715e-06</v>
       </c>
       <c r="E200" t="n">
-        <v>9.224740256605675e-06</v>
+        <v>5.887114737801371e-06</v>
       </c>
       <c r="F200" t="n">
-        <v>1.328975871602648</v>
+        <v>4.319250028393961</v>
       </c>
       <c r="G200" t="n">
-        <v>0.931922030061187</v>
+        <v>0.5044249390255773</v>
       </c>
       <c r="H200" t="n">
-        <v>0.2657951743205295</v>
+        <v>0.8638500056787922</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002139701341039692</v>
+        <v>0.0001358686492306399</v>
       </c>
       <c r="C201" t="n">
-        <v>4.574046445276139e-05</v>
+        <v>2.456904581028021e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>5.080806324213142e-06</v>
+        <v>3.203041833055136e-06</v>
       </c>
       <c r="E201" t="n">
-        <v>8.872999750873043e-06</v>
+        <v>5.418349200514425e-06</v>
       </c>
       <c r="F201" t="n">
-        <v>3.255313992564992</v>
+        <v>3.714651904320304</v>
       </c>
       <c r="G201" t="n">
-        <v>0.6606897251820261</v>
+        <v>0.5911850580049516</v>
       </c>
       <c r="H201" t="n">
-        <v>0.6510627985129984</v>
+        <v>0.7429303808640608</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0001999679635858424</v>
+        <v>0.0002294203824155667</v>
       </c>
       <c r="C202" t="n">
-        <v>3.870771807607368e-05</v>
+        <v>4.540355109065508e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>4.766961791345728e-06</v>
+        <v>5.483604664063386e-06</v>
       </c>
       <c r="E202" t="n">
-        <v>8.137724199620714e-06</v>
+        <v>9.381223683082152e-06</v>
       </c>
       <c r="F202" t="n">
-        <v>0.8630428845680325</v>
+        <v>6.749922947288985</v>
       </c>
       <c r="G202" t="n">
-        <v>0.9728392441085346</v>
+        <v>0.2399130311097221</v>
       </c>
       <c r="H202" t="n">
-        <v>0.1726085769136065</v>
+        <v>1.349984589457797</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="B203" t="n">
-        <v>0.000336648200718582</v>
+        <v>0.0001777588728919595</v>
       </c>
       <c r="C203" t="n">
-        <v>7.952110627865413e-05</v>
+        <v>3.935518056869508e-05</v>
       </c>
       <c r="D203" t="n">
-        <v>8.116214740328873e-06</v>
+        <v>3.925909582399118e-06</v>
       </c>
       <c r="E203" t="n">
-        <v>1.39972699133089e-05</v>
+        <v>6.894146657492165e-06</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9855842513028893</v>
+        <v>7.690952258347423</v>
       </c>
       <c r="G203" t="n">
-        <v>0.9637201020938538</v>
+        <v>0.1741104814652841</v>
       </c>
       <c r="H203" t="n">
-        <v>0.1971168502605778</v>
+        <v>1.538190451669485</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0002611182622248881</v>
+        <v>0.0002799699031295538</v>
       </c>
       <c r="C204" t="n">
-        <v>6.402476021843114e-05</v>
+        <v>5.593068614408777e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>5.81251267347463e-06</v>
+        <v>6.612556526570438e-06</v>
       </c>
       <c r="E204" t="n">
-        <v>1.024496824049017e-05</v>
+        <v>1.136345580211854e-05</v>
       </c>
       <c r="F204" t="n">
-        <v>3.252210905869966</v>
+        <v>4.876521254564725</v>
       </c>
       <c r="G204" t="n">
-        <v>0.6611657350121745</v>
+        <v>0.4311349692544402</v>
       </c>
       <c r="H204" t="n">
-        <v>0.6504421811739932</v>
+        <v>0.975304250912945</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0004105612761950916</v>
+        <v>0.0002654383468845253</v>
       </c>
       <c r="C205" t="n">
-        <v>9.339378702223462e-05</v>
+        <v>5.346734170033569e-05</v>
       </c>
       <c r="D205" t="n">
-        <v>9.768896324377818e-06</v>
+        <v>6.267471209483174e-06</v>
       </c>
       <c r="E205" t="n">
-        <v>1.690759362222311e-05</v>
+        <v>1.075398815043959e-05</v>
       </c>
       <c r="F205" t="n">
-        <v>0.783374339005792</v>
+        <v>4.487484610364632</v>
       </c>
       <c r="G205" t="n">
-        <v>0.978081638036885</v>
+        <v>0.481559698788541</v>
       </c>
       <c r="H205" t="n">
-        <v>0.1566748678011584</v>
+        <v>0.8974969220729264</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.591709508781143</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0004372639484982919</v>
+        <v>0.000254566023535616</v>
       </c>
       <c r="C206" t="n">
-        <v>0.0001120256737842616</v>
+        <v>5.487345162560253e-05</v>
       </c>
       <c r="D206" t="n">
-        <v>9.595874739834708e-06</v>
+        <v>6.066128087931819e-06</v>
       </c>
       <c r="E206" t="n">
-        <v>1.706877261485874e-05</v>
+        <v>1.039444843174405e-05</v>
       </c>
       <c r="F206" t="n">
-        <v>3.616273227869677</v>
+        <v>5.950847483410152</v>
       </c>
       <c r="G206" t="n">
-        <v>0.6058716075760641</v>
+        <v>0.3110310968897946</v>
       </c>
       <c r="H206" t="n">
-        <v>0.7232546455739353</v>
+        <v>1.19016949668203</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0003895319876284907</v>
+        <v>0.0002520899916363307</v>
       </c>
       <c r="C207" t="n">
-        <v>8.739289084385796e-05</v>
+        <v>5.822521266960302e-05</v>
       </c>
       <c r="D207" t="n">
-        <v>9.272490830512224e-06</v>
+        <v>5.966916373197537e-06</v>
       </c>
       <c r="E207" t="n">
-        <v>1.603242112803003e-05</v>
+        <v>1.030244285001911e-05</v>
       </c>
       <c r="F207" t="n">
-        <v>0.8680529033821581</v>
+        <v>6.441278931883081</v>
       </c>
       <c r="G207" t="n">
-        <v>0.9724912168440791</v>
+        <v>0.2656158209984595</v>
       </c>
       <c r="H207" t="n">
-        <v>0.1736105806764316</v>
+        <v>1.288255786376616</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0003760095273598687</v>
+        <v>0.0002461840503136468</v>
       </c>
       <c r="C208" t="n">
-        <v>8.621768227572621e-05</v>
+        <v>4.776438578622085e-05</v>
       </c>
       <c r="D208" t="n">
-        <v>9.017726563075168e-06</v>
+        <v>5.91995493065244e-06</v>
       </c>
       <c r="E208" t="n">
-        <v>1.554787098196664e-05</v>
+        <v>1.011373853308484e-05</v>
       </c>
       <c r="F208" t="n">
-        <v>2.259967714900576</v>
+        <v>5.249908360969433</v>
       </c>
       <c r="G208" t="n">
-        <v>0.8121282110578009</v>
+        <v>0.3861485434810797</v>
       </c>
       <c r="H208" t="n">
-        <v>0.4519935429801151</v>
+        <v>1.049981672193887</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0003701776160974378</v>
+        <v>0.0002326277729590772</v>
       </c>
       <c r="C209" t="n">
-        <v>9.287905392012499e-05</v>
+        <v>4.67419387638202e-05</v>
       </c>
       <c r="D209" t="n">
-        <v>8.852960977674944e-06</v>
+        <v>5.238322834443801e-06</v>
       </c>
       <c r="E209" t="n">
-        <v>1.544483534956099e-05</v>
+        <v>9.025445421829565e-06</v>
       </c>
       <c r="F209" t="n">
-        <v>3.01375647479781</v>
+        <v>5.747813137824778</v>
       </c>
       <c r="G209" t="n">
-        <v>0.6978648691811277</v>
+        <v>0.3315362558063977</v>
       </c>
       <c r="H209" t="n">
-        <v>0.602751294959562</v>
+        <v>1.149562627564956</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0003586475637217024</v>
+        <v>0.0002368490595054481</v>
       </c>
       <c r="C210" t="n">
-        <v>8.245235102093208e-05</v>
+        <v>4.412803623187173e-05</v>
       </c>
       <c r="D210" t="n">
-        <v>8.718898742851037e-06</v>
+        <v>5.613398998308387e-06</v>
       </c>
       <c r="E210" t="n">
-        <v>1.499113862768523e-05</v>
+        <v>9.601578013448291e-06</v>
       </c>
       <c r="F210" t="n">
-        <v>0.4598581131807477</v>
+        <v>4.326628321168593</v>
       </c>
       <c r="G210" t="n">
-        <v>0.9935194944181148</v>
+        <v>0.5034093944000669</v>
       </c>
       <c r="H210" t="n">
-        <v>0.09197162263614952</v>
+        <v>0.8653256642337187</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0003424561011224394</v>
+        <v>0.0001395349119129253</v>
       </c>
       <c r="C211" t="n">
-        <v>7.599036263382012e-05</v>
+        <v>3.20071124989558e-05</v>
       </c>
       <c r="D211" t="n">
-        <v>7.739041126657508e-06</v>
+        <v>3.184854060426755e-06</v>
       </c>
       <c r="E211" t="n">
-        <v>1.335528826389167e-05</v>
+        <v>5.549084308721158e-06</v>
       </c>
       <c r="F211" t="n">
-        <v>0.6936240811636362</v>
+        <v>6.702056493984461</v>
       </c>
       <c r="G211" t="n">
-        <v>0.9833167671424169</v>
+        <v>0.243758294161466</v>
       </c>
       <c r="H211" t="n">
-        <v>0.1387248162327272</v>
+        <v>1.340411298796892</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.600536472713462</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0003539108497662269</v>
+        <v>6.124726611681148e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>9.053384746661114e-05</v>
+        <v>1.14774602554286e-05</v>
       </c>
       <c r="D212" t="n">
-        <v>7.888352094482083e-06</v>
+        <v>1.666223671651897e-06</v>
       </c>
       <c r="E212" t="n">
-        <v>1.398869204869671e-05</v>
+        <v>2.779256606390315e-06</v>
       </c>
       <c r="F212" t="n">
-        <v>5.399835263613705</v>
+        <v>4.85578456861003</v>
       </c>
       <c r="G212" t="n">
-        <v>0.3690543444598078</v>
+        <v>0.4337329438731714</v>
       </c>
       <c r="H212" t="n">
-        <v>1.079967052722741</v>
+        <v>0.971156913722006</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0003508308309485913</v>
+        <v>3.909679294048478e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>7.246293123233012e-05</v>
+        <v>3.410774103916567e-06</v>
       </c>
       <c r="D213" t="n">
-        <v>8.349454039791103e-06</v>
+        <v>1.179380921303991e-06</v>
       </c>
       <c r="E213" t="n">
-        <v>1.439365988808421e-05</v>
+        <v>1.874517411509417e-06</v>
       </c>
       <c r="F213" t="n">
-        <v>0.3503900985995337</v>
+        <v>2.138870527660959</v>
       </c>
       <c r="G213" t="n">
-        <v>0.9965866088601339</v>
+        <v>0.8296151409652588</v>
       </c>
       <c r="H213" t="n">
-        <v>0.07007801971990674</v>
+        <v>0.4277741055321919</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.603295970175799</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0003762977856333986</v>
+        <v>5.529582532342416e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>8.920414830430545e-05</v>
+        <v>1.078755356011709e-05</v>
       </c>
       <c r="D214" t="n">
-        <v>8.336542118845426e-06</v>
+        <v>1.419450232588372e-06</v>
       </c>
       <c r="E214" t="n">
-        <v>1.468412413380405e-05</v>
+        <v>2.402563396340663e-06</v>
       </c>
       <c r="F214" t="n">
-        <v>5.394602048878558</v>
+        <v>5.092975923490347</v>
       </c>
       <c r="G214" t="n">
-        <v>0.3696415920521793</v>
+        <v>0.4046390703623677</v>
       </c>
       <c r="H214" t="n">
-        <v>1.078920409775712</v>
+        <v>1.018595184698069</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.604949954679621</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0003056116701955216</v>
+        <v>3.461865680530686e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>8.01911892219081e-05</v>
+        <v>4.372513863452472e-06</v>
       </c>
       <c r="D215" t="n">
-        <v>6.682967009260045e-06</v>
+        <v>1.005389383243919e-06</v>
       </c>
       <c r="E215" t="n">
-        <v>1.189868757563375e-05</v>
+        <v>1.647245191793884e-06</v>
       </c>
       <c r="F215" t="n">
-        <v>4.027037827846022</v>
+        <v>5.942313270777177</v>
       </c>
       <c r="G215" t="n">
-        <v>0.5455297705605502</v>
+        <v>0.3118726271040714</v>
       </c>
       <c r="H215" t="n">
-        <v>0.8054075655692043</v>
+        <v>1.188462654155436</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0002057653377566966</v>
+        <v>2.693363227444642e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>5.08157096118595e-05</v>
+        <v>3.426833295236103e-06</v>
       </c>
       <c r="D216" t="n">
-        <v>4.72263370621094e-06</v>
+        <v>8.517279084964474e-07</v>
       </c>
       <c r="E216" t="n">
-        <v>8.265764271647665e-06</v>
+        <v>1.394050248240839e-06</v>
       </c>
       <c r="F216" t="n">
-        <v>1.534667347138441</v>
+        <v>1.362622426641198</v>
       </c>
       <c r="G216" t="n">
-        <v>0.9090348728279527</v>
+        <v>0.9283578963427791</v>
       </c>
       <c r="H216" t="n">
-        <v>0.3069334694276881</v>
+        <v>0.2725244853282397</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="B217" t="n">
-        <v>8.93914195682811e-05</v>
+        <v>2.316200466380847e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>1.983302968612815e-05</v>
+        <v>1.214287307085799e-06</v>
       </c>
       <c r="D217" t="n">
-        <v>2.477211459777392e-06</v>
+        <v>7.365783691677232e-07</v>
       </c>
       <c r="E217" t="n">
-        <v>4.186921477875848e-06</v>
+        <v>1.134855866709534e-06</v>
       </c>
       <c r="F217" t="n">
-        <v>0.8147562018126032</v>
+        <v>1.71916828850157</v>
       </c>
       <c r="G217" t="n">
-        <v>0.9760826139351507</v>
+        <v>0.8864760870502003</v>
       </c>
       <c r="H217" t="n">
-        <v>0.1629512403625206</v>
+        <v>0.3438336577003141</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="B218" t="n">
-        <v>5.736285219676823e-05</v>
+        <v>2.18441583367648e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>6.41084006126514e-06</v>
+        <v>1.158854023691423e-06</v>
       </c>
       <c r="D218" t="n">
-        <v>1.764159603885634e-06</v>
+        <v>7.276371823152538e-07</v>
       </c>
       <c r="E218" t="n">
-        <v>2.860578201743247e-06</v>
+        <v>1.173253745711078e-06</v>
       </c>
       <c r="F218" t="n">
-        <v>1.388503197726086</v>
+        <v>9.413675865658403</v>
       </c>
       <c r="G218" t="n">
-        <v>0.9255667564120135</v>
+        <v>0.09365878543706789</v>
       </c>
       <c r="H218" t="n">
-        <v>0.2777006395452172</v>
+        <v>1.882735173131681</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="B219" t="n">
-        <v>8.159897319167791e-05</v>
+        <v>2.139859197739726e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>1.753362990809524e-05</v>
+        <v>1.379411002426535e-06</v>
       </c>
       <c r="D219" t="n">
-        <v>2.127146629067119e-06</v>
+        <v>7.323770479702912e-07</v>
       </c>
       <c r="E219" t="n">
-        <v>3.658814447571446e-06</v>
+        <v>1.178006353329692e-06</v>
       </c>
       <c r="F219" t="n">
-        <v>2.041541110309024</v>
+        <v>8.281293405146963</v>
       </c>
       <c r="G219" t="n">
-        <v>0.8433676947010168</v>
+        <v>0.1413992439750966</v>
       </c>
       <c r="H219" t="n">
-        <v>0.4083082220618048</v>
+        <v>1.656258681029393</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="B220" t="n">
-        <v>5.063955341694839e-05</v>
+        <v>2.572800696925341e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>8.326704651030892e-06</v>
+        <v>1.192836674669615e-06</v>
       </c>
       <c r="D220" t="n">
-        <v>1.502446228708445e-06</v>
+        <v>8.393537758782718e-07</v>
       </c>
       <c r="E220" t="n">
-        <v>2.504200912183308e-06</v>
+        <v>1.320708791475881e-06</v>
       </c>
       <c r="F220" t="n">
-        <v>3.212543436573954</v>
+        <v>1.890227689894441</v>
       </c>
       <c r="G220" t="n">
-        <v>0.6672554997649551</v>
+        <v>0.8641160988139731</v>
       </c>
       <c r="H220" t="n">
-        <v>0.6425086873147908</v>
+        <v>0.3780455379788883</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="B221" t="n">
-        <v>3.968855546467735e-05</v>
+        <v>2.592430541681539e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>5.460140237464441e-06</v>
+        <v>3.128370382351574e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>1.284037598864224e-06</v>
+        <v>8.61606964984365e-07</v>
       </c>
       <c r="E221" t="n">
-        <v>2.154953538675773e-06</v>
+        <v>1.381767619742156e-06</v>
       </c>
       <c r="F221" t="n">
-        <v>1.515866057195953</v>
+        <v>1.411930702748606</v>
       </c>
       <c r="G221" t="n">
-        <v>0.9112316451931257</v>
+        <v>0.9230037467583543</v>
       </c>
       <c r="H221" t="n">
-        <v>0.3031732114391906</v>
+        <v>0.2823861405497212</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="B222" t="n">
-        <v>3.397460266702408e-05</v>
+        <v>2.894673111643238e-05</v>
       </c>
       <c r="C222" t="n">
-        <v>2.13566526414723e-06</v>
+        <v>5.054746292084597e-06</v>
       </c>
       <c r="D222" t="n">
-        <v>1.119649329023232e-06</v>
+        <v>8.221461220038421e-07</v>
       </c>
       <c r="E222" t="n">
-        <v>1.769171082211826e-06</v>
+        <v>1.352308633001685e-06</v>
       </c>
       <c r="F222" t="n">
-        <v>1.935973718865861</v>
+        <v>1.931920154762403</v>
       </c>
       <c r="G222" t="n">
-        <v>0.8579314939854004</v>
+        <v>0.8584827347787756</v>
       </c>
       <c r="H222" t="n">
-        <v>0.3871947437731722</v>
+        <v>0.3863840309524806</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="B223" t="n">
-        <v>3.225759524497987e-05</v>
+        <v>3.332664615901324e-05</v>
       </c>
       <c r="C223" t="n">
-        <v>2.445262213613813e-06</v>
+        <v>4.678103190139015e-06</v>
       </c>
       <c r="D223" t="n">
-        <v>1.09465466961403e-06</v>
+        <v>9.551727531859808e-07</v>
       </c>
       <c r="E223" t="n">
-        <v>1.809465529652285e-06</v>
+        <v>1.562197621261025e-06</v>
       </c>
       <c r="F223" t="n">
-        <v>7.467437130015566</v>
+        <v>1.286807462709415</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1881317722055553</v>
+        <v>0.936283309026524</v>
       </c>
       <c r="H223" t="n">
-        <v>1.493487426003113</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>4.630650988498092</v>
-      </c>
-      <c r="B224" t="n">
-        <v>3.14415444386366e-05</v>
-      </c>
-      <c r="C224" t="n">
-        <v>2.353751697614858e-06</v>
-      </c>
-      <c r="D224" t="n">
-        <v>1.105706350638339e-06</v>
-      </c>
-      <c r="E224" t="n">
-        <v>1.826696987213545e-06</v>
-      </c>
-      <c r="F224" t="n">
-        <v>7.74117758442457</v>
-      </c>
-      <c r="G224" t="n">
-        <v>0.171088538314905</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1.548235516884914</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>4.639795037542543</v>
-      </c>
-      <c r="B225" t="n">
-        <v>3.769625557453255e-05</v>
-      </c>
-      <c r="C225" t="n">
-        <v>1.698510427428263e-06</v>
-      </c>
-      <c r="D225" t="n">
-        <v>1.266420266628947e-06</v>
-      </c>
-      <c r="E225" t="n">
-        <v>2.038256325100846e-06</v>
-      </c>
-      <c r="F225" t="n">
-        <v>1.372849744157138</v>
-      </c>
-      <c r="G225" t="n">
-        <v>0.9272600209603369</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0.2745699488314275</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>4.64860486173907</v>
-      </c>
-      <c r="B226" t="n">
-        <v>3.808727995841394e-05</v>
-      </c>
-      <c r="C226" t="n">
-        <v>4.909907218973641e-06</v>
-      </c>
-      <c r="D226" t="n">
-        <v>1.309796840375964e-06</v>
-      </c>
-      <c r="E226" t="n">
-        <v>2.150528360245401e-06</v>
-      </c>
-      <c r="F226" t="n">
-        <v>0.9414403835538853</v>
-      </c>
-      <c r="G226" t="n">
-        <v>0.9671493861971647</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0.188288076710777</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>4.658074565763548</v>
-      </c>
-      <c r="B227" t="n">
-        <v>4.239210887905322e-05</v>
-      </c>
-      <c r="C227" t="n">
-        <v>7.711641785339998e-06</v>
-      </c>
-      <c r="D227" t="n">
-        <v>1.236561381705648e-06</v>
-      </c>
-      <c r="E227" t="n">
-        <v>2.096684358525921e-06</v>
-      </c>
-      <c r="F227" t="n">
-        <v>3.159535573360536</v>
-      </c>
-      <c r="G227" t="n">
-        <v>0.675405519968205</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0.6319071146721073</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>4.661373964903298</v>
-      </c>
-      <c r="B228" t="n">
-        <v>4.891833658312483e-05</v>
-      </c>
-      <c r="C228" t="n">
-        <v>6.959106580871711e-06</v>
-      </c>
-      <c r="D228" t="n">
-        <v>1.436483063683545e-06</v>
-      </c>
-      <c r="E228" t="n">
-        <v>2.401536284702692e-06</v>
-      </c>
-      <c r="F228" t="n">
-        <v>1.231948460687529</v>
-      </c>
-      <c r="G228" t="n">
-        <v>0.9417758701909387</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0.2463896921375058</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>4.662710864294989</v>
-      </c>
-      <c r="B229" t="n">
-        <v>4.967643772511114e-05</v>
-      </c>
-      <c r="C229" t="n">
-        <v>4.756290484573414e-06</v>
-      </c>
-      <c r="D229" t="n">
-        <v>1.599854577629139e-06</v>
-      </c>
-      <c r="E229" t="n">
-        <v>2.654922764617065e-06</v>
-      </c>
-      <c r="F229" t="n">
-        <v>11.3195416337791</v>
-      </c>
-      <c r="G229" t="n">
-        <v>0.04539985678228257</v>
-      </c>
-      <c r="H229" t="n">
-        <v>2.26390832675582</v>
+        <v>0.2573614925418829</v>
       </c>
     </row>
   </sheetData>
